--- a/relatorios/2025/06/2025-06-30.xlsx
+++ b/relatorios/2025/06/2025-06-30.xlsx
@@ -117,286 +117,286 @@
     <t>Todos</t>
   </si>
   <si>
+    <t>Luiza Vitoria Leite Brito</t>
+  </si>
+  <si>
+    <t>4146 -</t>
+  </si>
+  <si>
+    <t>Andrezza Daiziele Silva Lourenco Dos Santos</t>
+  </si>
+  <si>
+    <t>Joao Vitor Lima Correa</t>
+  </si>
+  <si>
+    <t>Giovanna Ferreira Gualberto</t>
+  </si>
+  <si>
+    <t>Allanda Thawane Bomdespacho Da Silva Amorim</t>
+  </si>
+  <si>
+    <t>Ingrid Geovana Vilela Da Trindade</t>
+  </si>
+  <si>
+    <t>Letticia Maria De Figueiredo</t>
+  </si>
+  <si>
+    <t>Jacqueline Paula Da Cruz Santana</t>
+  </si>
+  <si>
+    <t>Gisely Cristina De Souza Pereira</t>
+  </si>
+  <si>
+    <t>Dalva Beatriz Malhado Ferraz</t>
+  </si>
+  <si>
+    <t>Rhadja Vitoria Cruz Ahmad</t>
+  </si>
+  <si>
+    <t>Maria Danila Nascimento Ferreira</t>
+  </si>
+  <si>
+    <t>Rosana Oliveira</t>
+  </si>
+  <si>
+    <t>Vanessa Santos Da Silva</t>
+  </si>
+  <si>
+    <t>Ana Karla Ribeiro De Moura</t>
+  </si>
+  <si>
+    <t>Anna Julia Da Silva Pinto</t>
+  </si>
+  <si>
+    <t>Nyandra Victória De Oliveira Lopes</t>
+  </si>
+  <si>
+    <t>Luana Cleia De Almeida</t>
+  </si>
+  <si>
+    <t>Noety Fonseca</t>
+  </si>
+  <si>
+    <t>Quezia Da Silva Luna</t>
+  </si>
+  <si>
+    <t>Ana Esther Da Silva Deri Lima</t>
+  </si>
+  <si>
+    <t>Jose Alejandro Ortiz Romero</t>
+  </si>
+  <si>
+    <t>Lorrayne Farias Mamora</t>
+  </si>
+  <si>
+    <t>Julia Rodrigues Amaral</t>
+  </si>
+  <si>
+    <t>Gianine Da Silva Cruz</t>
+  </si>
+  <si>
+    <t>Danielle Torres Ferreira</t>
+  </si>
+  <si>
+    <t>Flavia Camila Pereira Borges Da Silva</t>
+  </si>
+  <si>
+    <t>9009 -</t>
+  </si>
+  <si>
+    <t>Tarson Kaan Soares De Souza</t>
+  </si>
+  <si>
+    <t>Crislayne Keuly Martins Do Nascimento</t>
+  </si>
+  <si>
+    <t>Priscila Silva Moreira</t>
+  </si>
+  <si>
+    <t>Paolla Amaral Santos</t>
+  </si>
+  <si>
+    <t>Edimilson Gomes Bezerra</t>
+  </si>
+  <si>
+    <t>Wanessa Beatriz Pereira De Araujo</t>
+  </si>
+  <si>
+    <t>Alvina De Oliveira Alves Santos</t>
+  </si>
+  <si>
+    <t>Maica Rejane Nogueira Da Silva</t>
+  </si>
+  <si>
+    <t>Talita Rodrigues Santiago</t>
+  </si>
+  <si>
+    <t>Julie Auxiliadora De Jesus Da Silva</t>
+  </si>
+  <si>
+    <t>Ayla Rafaelly Dos Santos Magalhaes Barros</t>
+  </si>
+  <si>
+    <t>Caroline Cruz De Arruda Oliveira</t>
+  </si>
+  <si>
+    <t>Kamila Vitoria Soares Da Silva</t>
+  </si>
+  <si>
+    <t>Fatima Sampaio Rocamora</t>
+  </si>
+  <si>
+    <t>Graciele De Jesus Sousa</t>
+  </si>
+  <si>
+    <t>Eduarda Renata Arruda De Souza</t>
+  </si>
+  <si>
+    <t>Eudirza Regina Da Silva Moraes</t>
+  </si>
+  <si>
+    <t>Maria Antonia Pinto Da Silva</t>
+  </si>
+  <si>
+    <t>Thayane Campelo De Moura</t>
+  </si>
+  <si>
+    <t>14502 -</t>
+  </si>
+  <si>
+    <t>Edineia Fatima Da Silva</t>
+  </si>
+  <si>
+    <t>Leila Marcia Paes De Oliveira</t>
+  </si>
+  <si>
+    <t>Marcela Antunes De Almeida</t>
+  </si>
+  <si>
+    <t>Mateus De Andrade Barbosa</t>
+  </si>
+  <si>
+    <t>Pamela Vitoria Campos Pereira</t>
+  </si>
+  <si>
+    <t>Laura Auxiliadora Oliveira Souza</t>
+  </si>
+  <si>
+    <t>Mara Alves Saldanha</t>
+  </si>
+  <si>
+    <t>Bruna Regina De Paula</t>
+  </si>
+  <si>
+    <t>Mare Julia Mendes Silva</t>
+  </si>
+  <si>
+    <t>Gislayne Oliveira Santos</t>
+  </si>
+  <si>
+    <t>Julio Matheus De Oliveira Ferreira</t>
+  </si>
+  <si>
+    <t>Mykaelly Regina Souza De Carvalho</t>
+  </si>
+  <si>
+    <t>Ilara Myslanna Costa Silva</t>
+  </si>
+  <si>
+    <t>Ana Carolina Maurera Perez</t>
+  </si>
+  <si>
+    <t>Marceli Ramalho Da Silva</t>
+  </si>
+  <si>
+    <t>4590 -</t>
+  </si>
+  <si>
+    <t>Nathalya Monik Marques Dos Santos</t>
+  </si>
+  <si>
+    <t>Thatielly Curvo Evangelista</t>
+  </si>
+  <si>
+    <t>Franciele Marques Da Silva</t>
+  </si>
+  <si>
+    <t>Juliana Carolina Da Silva</t>
+  </si>
+  <si>
+    <t>Ana Vitoria Lara Pereira</t>
+  </si>
+  <si>
+    <t>Sidneia Aparecida De Souza Rodrigues</t>
+  </si>
+  <si>
+    <t>Daiane Cardoso De Matos</t>
+  </si>
+  <si>
+    <t>Mariah Camila Valencia Toscano</t>
+  </si>
+  <si>
+    <t>Kaline Alice Da Silva</t>
+  </si>
+  <si>
+    <t>Leticia Pereira Ribeiro</t>
+  </si>
+  <si>
+    <t>6417 -</t>
+  </si>
+  <si>
+    <t>Regiane Dias Oliveira</t>
+  </si>
+  <si>
+    <t>Salete Aparecida De Arruda</t>
+  </si>
+  <si>
+    <t>Martha Chrystianne Fernandes De Morais</t>
+  </si>
+  <si>
+    <t>Raiana Aparecida De Arruda</t>
+  </si>
+  <si>
+    <t>Yorrana Pereira Do Amaral Santana</t>
+  </si>
+  <si>
+    <t>Maelison Alves De Oliveira</t>
+  </si>
+  <si>
+    <t>Evania Magalhaes Da Silva</t>
+  </si>
+  <si>
+    <t>Raynara Aparecida Paes Fonseca</t>
+  </si>
+  <si>
+    <t>Jessica Costa Da Silva</t>
+  </si>
+  <si>
     <t>Monica Cristina Miranda Dos Santos</t>
   </si>
   <si>
-    <t>Priscila Silva Moreira</t>
-  </si>
-  <si>
-    <t>Marcela Antunes De Almeida</t>
-  </si>
-  <si>
-    <t>Rosana Oliveira</t>
-  </si>
-  <si>
-    <t>Graciele De Jesus Sousa</t>
-  </si>
-  <si>
-    <t>Ingrid Geovana Vilela Da Trindade</t>
+    <t>Anna Clara Correa De Carvalho Borges</t>
+  </si>
+  <si>
+    <t>Ildiane De Sousa Ribeiro</t>
+  </si>
+  <si>
+    <t>Geisielle Silva Cruz</t>
+  </si>
+  <si>
+    <t>Samyra Cruz Ibrahim Ahmad</t>
   </si>
   <si>
     <t>Dhara Cristina Pedrosa Oliveiira</t>
   </si>
   <si>
-    <t>Eduarda Renata Arruda De Souza</t>
-  </si>
-  <si>
-    <t>Gianine Da Silva Cruz</t>
-  </si>
-  <si>
-    <t>Dalva Beatriz Malhado Ferraz</t>
-  </si>
-  <si>
-    <t>Ana Esther Da Silva Deri Lima</t>
-  </si>
-  <si>
-    <t>Thayane Campelo De Moura</t>
-  </si>
-  <si>
-    <t>Mateus De Andrade Barbosa</t>
-  </si>
-  <si>
-    <t>Lorrayne Farias Mamora</t>
-  </si>
-  <si>
-    <t>Daiane Cardoso De Matos</t>
-  </si>
-  <si>
-    <t>Maria Antonia Pinto Da Silva</t>
-  </si>
-  <si>
-    <t>Maria Danila Nascimento Ferreira</t>
-  </si>
-  <si>
-    <t>Talita Rodrigues Santiago</t>
-  </si>
-  <si>
-    <t>Jose Alejandro Ortiz Romero</t>
-  </si>
-  <si>
-    <t>Crislayne Keuly Martins Do Nascimento</t>
-  </si>
-  <si>
-    <t>Martha Chrystianne Fernandes De Morais</t>
-  </si>
-  <si>
-    <t>Bruna Regina De Paula</t>
-  </si>
-  <si>
-    <t>Eudirza Regina Da Silva Moraes</t>
-  </si>
-  <si>
-    <t>Gisely Cristina De Souza Pereira</t>
-  </si>
-  <si>
-    <t>Juliana Carolina Da Silva</t>
-  </si>
-  <si>
-    <t>Regiane Dias Oliveira</t>
-  </si>
-  <si>
-    <t>4146 -</t>
-  </si>
-  <si>
-    <t>Noety Fonseca</t>
-  </si>
-  <si>
-    <t>Evania Magalhaes Da Silva</t>
-  </si>
-  <si>
-    <t>Leila Marcia Paes De Oliveira</t>
-  </si>
-  <si>
-    <t>Danielle Torres Ferreira</t>
-  </si>
-  <si>
-    <t>Maelison Alves De Oliveira</t>
+    <t>Ana Karolliny Alcantara De Oliveira</t>
   </si>
   <si>
     <t>Denise Lemes Martins</t>
   </si>
   <si>
-    <t>Ana Karla Ribeiro De Moura</t>
-  </si>
-  <si>
-    <t>Mare Julia Mendes Silva</t>
-  </si>
-  <si>
-    <t>Andrezza Daiziele Silva Lourenco Dos Santos</t>
-  </si>
-  <si>
-    <t>Thatielly Curvo Evangelista</t>
-  </si>
-  <si>
-    <t>Ana Carolina Maurera Perez</t>
-  </si>
-  <si>
-    <t>Raynara Aparecida Paes Fonseca</t>
-  </si>
-  <si>
-    <t>Tarson Kaan Soares De Souza</t>
-  </si>
-  <si>
-    <t>Jessica Costa Da Silva</t>
-  </si>
-  <si>
-    <t>Maica Rejane Nogueira Da Silva</t>
-  </si>
-  <si>
-    <t>Edimilson Gomes Bezerra</t>
-  </si>
-  <si>
-    <t>Marceli Ramalho Da Silva</t>
-  </si>
-  <si>
-    <t>Edineia Fatima Da Silva</t>
-  </si>
-  <si>
-    <t>Luiza Vitoria Leite Brito</t>
-  </si>
-  <si>
-    <t>Anna Julia Da Silva Pinto</t>
-  </si>
-  <si>
-    <t>Luana Cleia De Almeida</t>
-  </si>
-  <si>
-    <t>Ana Vitoria Lara Pereira</t>
-  </si>
-  <si>
-    <t>Nathalya Monik Marques Dos Santos</t>
-  </si>
-  <si>
-    <t>Sidneia Aparecida De Souza Rodrigues</t>
-  </si>
-  <si>
-    <t>Joao Vitor Lima Correa</t>
-  </si>
-  <si>
-    <t>Kaline Alice Da Silva</t>
-  </si>
-  <si>
-    <t>Nyandra Victória De Oliveira Lopes</t>
-  </si>
-  <si>
-    <t>Vanessa Santos Da Silva</t>
-  </si>
-  <si>
-    <t>Yorrana Pereira Do Amaral Santana</t>
-  </si>
-  <si>
-    <t>Raiana Aparecida De Arruda</t>
-  </si>
-  <si>
-    <t>Allanda Thawane Bomdespacho Da Silva Amorim</t>
-  </si>
-  <si>
     <t>Tabinny Sumaya Silva Gomes</t>
-  </si>
-  <si>
-    <t>Mykaelly Regina Souza De Carvalho</t>
-  </si>
-  <si>
-    <t>Quezia Da Silva Luna</t>
-  </si>
-  <si>
-    <t>9009 -</t>
-  </si>
-  <si>
-    <t>Julia Rodrigues Amaral</t>
-  </si>
-  <si>
-    <t>Wanessa Beatriz Pereira De Araujo</t>
-  </si>
-  <si>
-    <t>Anna Clara Correa De Carvalho Borges</t>
-  </si>
-  <si>
-    <t>Caroline Cruz De Arruda Oliveira</t>
-  </si>
-  <si>
-    <t>6417 -</t>
-  </si>
-  <si>
-    <t>Leticia Pereira Ribeiro</t>
-  </si>
-  <si>
-    <t>Franciele Marques Da Silva</t>
-  </si>
-  <si>
-    <t>Salete Aparecida De Arruda</t>
-  </si>
-  <si>
-    <t>Giovanna Ferreira Gualberto</t>
-  </si>
-  <si>
-    <t>Flavia Camila Pereira Borges Da Silva</t>
-  </si>
-  <si>
-    <t>Letticia Maria De Figueiredo</t>
-  </si>
-  <si>
-    <t>Mara Alves Saldanha</t>
-  </si>
-  <si>
-    <t>Fatima Sampaio Rocamora</t>
-  </si>
-  <si>
-    <t>Ilara Myslanna Costa Silva</t>
-  </si>
-  <si>
-    <t>Geisielle Silva Cruz</t>
-  </si>
-  <si>
-    <t>Laura Auxiliadora Oliveira Souza</t>
-  </si>
-  <si>
-    <t>Jacqueline Paula Da Cruz Santana</t>
-  </si>
-  <si>
-    <t>Paolla Amaral Santos</t>
-  </si>
-  <si>
-    <t>Kamila Vitoria Soares Da Silva</t>
-  </si>
-  <si>
-    <t>4590 -</t>
-  </si>
-  <si>
-    <t>Samyra Cruz Ibrahim Ahmad</t>
-  </si>
-  <si>
-    <t>Julio Matheus De Oliveira Ferreira</t>
-  </si>
-  <si>
-    <t>Julie Auxiliadora De Jesus Da Silva</t>
-  </si>
-  <si>
-    <t>Ildiane De Sousa Ribeiro</t>
-  </si>
-  <si>
-    <t>Rhadja Vitoria Cruz Ahmad</t>
-  </si>
-  <si>
-    <t>Gislayne Oliveira Santos</t>
-  </si>
-  <si>
-    <t>Ana Karolliny Alcantara De Oliveira</t>
-  </si>
-  <si>
-    <t>Pamela Vitoria Campos Pereira</t>
-  </si>
-  <si>
-    <t>Ayla Rafaelly Dos Santos Magalhaes Barros</t>
-  </si>
-  <si>
-    <t>Alvina De Oliveira Alves Santos</t>
-  </si>
-  <si>
-    <t>Mariah Camila Valencia Toscano</t>
-  </si>
-  <si>
-    <t>14502 -</t>
   </si>
 </sst>
 </file>
@@ -1128,76 +1128,76 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>6777</v>
+        <v>7448</v>
       </c>
       <c r="B4" s="3">
-        <v>4465.32</v>
+        <v>4520.8</v>
       </c>
       <c r="C4" s="3">
-        <v>4465.32</v>
+        <v>4520.8</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="3">
-        <v>4465.32</v>
+        <v>4520.8</v>
       </c>
       <c r="F4" s="3">
-        <v>4465.32</v>
+        <v>4520.8</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="3">
-        <v>186.055</v>
+        <v>161.457142857</v>
       </c>
       <c r="I4" s="3">
-        <v>186.055</v>
+        <v>161.457142857</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="3">
-        <v>186.05499999999998</v>
+        <v>161.45714285714286</v>
       </c>
       <c r="L4" s="3">
-        <v>186.05499999999998</v>
+        <v>161.45714285714286</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N4" s="3">
-        <v>2.625</v>
+        <v>3.3214285714285716</v>
       </c>
       <c r="O4" s="3">
-        <v>2.625</v>
+        <v>3.3214285714285716</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q4" s="5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R4" s="5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T4" s="3">
-        <v>70.878095238</v>
+        <v>48.610752688</v>
       </c>
       <c r="U4" s="3">
-        <v>70.878095238</v>
+        <v>48.610752688</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W4" s="5">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="X4" s="5">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>29</v>
@@ -1205,76 +1205,76 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>6005</v>
+        <v>6417</v>
       </c>
       <c r="B5" s="3">
-        <v>1730.25</v>
+        <v>5413.76</v>
       </c>
       <c r="C5" s="3">
-        <v>1730.25</v>
+        <v>5413.76</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="3">
-        <v>1730.25</v>
+        <v>5413.76</v>
       </c>
       <c r="F5" s="3">
-        <v>1730.25</v>
+        <v>5413.76</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="3">
-        <v>157.295454545</v>
+        <v>138.814358974</v>
       </c>
       <c r="I5" s="3">
-        <v>157.295454545</v>
+        <v>138.814358974</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="3">
-        <v>157.29545454545453</v>
+        <v>138.81435897435898</v>
       </c>
       <c r="L5" s="3">
-        <v>157.29545454545453</v>
+        <v>138.81435897435898</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="3">
-        <v>2</v>
+        <v>2.41025641025641</v>
       </c>
       <c r="O5" s="3">
-        <v>2</v>
+        <v>2.41025641025641</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q5" s="5">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="R5" s="5">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T5" s="3">
-        <v>78.647727273</v>
+        <v>57.593191489</v>
       </c>
       <c r="U5" s="3">
-        <v>78.647727273</v>
+        <v>57.593191489</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W5" s="5">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="X5" s="5">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>29</v>
@@ -1282,76 +1282,76 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>12816</v>
+        <v>6777</v>
       </c>
       <c r="B6" s="3">
-        <v>4902.95</v>
+        <v>4465.32</v>
       </c>
       <c r="C6" s="3">
-        <v>4902.95</v>
+        <v>4465.32</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="3">
-        <v>4902.95</v>
+        <v>4465.32</v>
       </c>
       <c r="F6" s="3">
-        <v>4902.95</v>
+        <v>4465.32</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="3">
-        <v>175.105357143</v>
+        <v>186.055</v>
       </c>
       <c r="I6" s="3">
-        <v>175.105357143</v>
+        <v>186.055</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="3">
-        <v>175.10535714285714</v>
+        <v>186.05499999999998</v>
       </c>
       <c r="L6" s="3">
-        <v>175.10535714285714</v>
+        <v>186.05499999999998</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N6" s="3">
-        <v>3.107142857142857</v>
+        <v>2.625</v>
       </c>
       <c r="O6" s="3">
-        <v>3.107142857142857</v>
+        <v>2.625</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q6" s="5">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R6" s="5">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T6" s="3">
-        <v>56.355747126</v>
+        <v>70.878095238</v>
       </c>
       <c r="U6" s="3">
-        <v>56.355747126</v>
+        <v>70.878095238</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W6" s="5">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="X6" s="5">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>29</v>
@@ -1359,76 +1359,76 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6417</v>
+        <v>20138</v>
       </c>
       <c r="B7" s="3">
-        <v>5413.76</v>
+        <v>7522.65</v>
       </c>
       <c r="C7" s="3">
-        <v>5413.76</v>
+        <v>7522.65</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="3">
-        <v>5413.76</v>
+        <v>7522.65</v>
       </c>
       <c r="F7" s="3">
-        <v>5413.76</v>
+        <v>7522.65</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="3">
-        <v>138.814358974</v>
+        <v>179.110714286</v>
       </c>
       <c r="I7" s="3">
-        <v>138.814358974</v>
+        <v>179.110714286</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="3">
-        <v>138.81435897435898</v>
+        <v>179.11071428571427</v>
       </c>
       <c r="L7" s="3">
-        <v>138.81435897435898</v>
+        <v>179.11071428571427</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N7" s="3">
-        <v>2.41025641025641</v>
+        <v>3</v>
       </c>
       <c r="O7" s="3">
-        <v>2.41025641025641</v>
+        <v>3</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q7" s="5">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R7" s="5">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T7" s="3">
-        <v>57.593191489</v>
+        <v>59.703571429</v>
       </c>
       <c r="U7" s="3">
-        <v>57.593191489</v>
+        <v>59.703571429</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W7" s="5">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="X7" s="5">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>29</v>
@@ -1436,76 +1436,76 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7448</v>
+        <v>12550</v>
       </c>
       <c r="B8" s="3">
-        <v>4520.8</v>
+        <v>4276.31</v>
       </c>
       <c r="C8" s="3">
-        <v>4520.8</v>
+        <v>4276.31</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="3">
-        <v>4520.8</v>
+        <v>4276.31</v>
       </c>
       <c r="F8" s="3">
-        <v>4520.8</v>
+        <v>4276.31</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="3">
-        <v>161.457142857</v>
+        <v>164.473461538</v>
       </c>
       <c r="I8" s="3">
-        <v>161.457142857</v>
+        <v>164.473461538</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="3">
-        <v>161.45714285714286</v>
+        <v>164.47346153846155</v>
       </c>
       <c r="L8" s="3">
-        <v>161.45714285714286</v>
+        <v>164.47346153846155</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N8" s="3">
-        <v>3.3214285714285716</v>
+        <v>4.038461538461538</v>
       </c>
       <c r="O8" s="3">
-        <v>3.3214285714285716</v>
+        <v>4.038461538461538</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q8" s="5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R8" s="5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T8" s="3">
-        <v>48.610752688</v>
+        <v>40.726761905</v>
       </c>
       <c r="U8" s="3">
-        <v>48.610752688</v>
+        <v>40.726761905</v>
       </c>
       <c r="V8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W8" s="5">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="X8" s="5">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>29</v>
@@ -1513,76 +1513,76 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>12808</v>
+        <v>14502</v>
       </c>
       <c r="B9" s="3">
-        <v>2669.08</v>
+        <v>7529.68</v>
       </c>
       <c r="C9" s="3">
-        <v>2669.08</v>
+        <v>7529.68</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="3">
-        <v>2669.08</v>
+        <v>7529.68</v>
       </c>
       <c r="F9" s="3">
-        <v>2669.08</v>
+        <v>7529.68</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="3">
-        <v>166.8175</v>
+        <v>175.108837209</v>
       </c>
       <c r="I9" s="3">
-        <v>166.8175</v>
+        <v>175.108837209</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="3">
-        <v>166.8175</v>
+        <v>175.10883720930232</v>
       </c>
       <c r="L9" s="3">
-        <v>166.8175</v>
+        <v>175.10883720930232</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N9" s="3">
-        <v>2.6875</v>
+        <v>2.7674418604651163</v>
       </c>
       <c r="O9" s="3">
-        <v>2.6875</v>
+        <v>2.7674418604651163</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q9" s="5">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="R9" s="5">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T9" s="3">
-        <v>62.071627907</v>
+        <v>63.274621849</v>
       </c>
       <c r="U9" s="3">
-        <v>62.071627907</v>
+        <v>63.274621849</v>
       </c>
       <c r="V9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W9" s="5">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="X9" s="5">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="Y9" s="4" t="s">
         <v>29</v>
@@ -1590,76 +1590,76 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="B10" s="3">
-        <v>5747.55</v>
+        <v>4699.92</v>
       </c>
       <c r="C10" s="3">
-        <v>5747.55</v>
+        <v>4699.92</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="3">
-        <v>5747.55</v>
+        <v>4699.92</v>
       </c>
       <c r="F10" s="3">
-        <v>5747.55</v>
+        <v>4699.92</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="3">
-        <v>212.872222222</v>
+        <v>130.553333333</v>
       </c>
       <c r="I10" s="3">
-        <v>212.872222222</v>
+        <v>130.553333333</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="3">
-        <v>212.87222222222223</v>
+        <v>130.55333333333334</v>
       </c>
       <c r="L10" s="3">
-        <v>212.87222222222223</v>
+        <v>130.55333333333334</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N10" s="3">
-        <v>3.3333333333333335</v>
+        <v>2.638888888888889</v>
       </c>
       <c r="O10" s="3">
-        <v>3.3333333333333335</v>
+        <v>2.638888888888889</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q10" s="5">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="R10" s="5">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T10" s="3">
-        <v>63.861666667</v>
+        <v>49.472842105</v>
       </c>
       <c r="U10" s="3">
-        <v>63.861666667</v>
+        <v>49.472842105</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W10" s="5">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X10" s="5">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y10" s="4" t="s">
         <v>29</v>
@@ -1667,76 +1667,76 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>19832</v>
+        <v>14586</v>
       </c>
       <c r="B11" s="3">
-        <v>10548.86</v>
+        <v>7876.81</v>
       </c>
       <c r="C11" s="3">
-        <v>10548.86</v>
+        <v>7876.81</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="3">
-        <v>10548.86</v>
+        <v>7876.81</v>
       </c>
       <c r="F11" s="3">
-        <v>10548.86</v>
+        <v>7876.81</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="3">
-        <v>181.876896552</v>
+        <v>148.619056604</v>
       </c>
       <c r="I11" s="3">
-        <v>181.876896552</v>
+        <v>148.619056604</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="3">
-        <v>181.87689655172414</v>
+        <v>148.6190566037736</v>
       </c>
       <c r="L11" s="3">
-        <v>181.87689655172414</v>
+        <v>148.6190566037736</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N11" s="3">
-        <v>2.9827586206896552</v>
+        <v>2.943396226415094</v>
       </c>
       <c r="O11" s="3">
-        <v>2.9827586206896552</v>
+        <v>2.943396226415094</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q11" s="5">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="R11" s="5">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T11" s="3">
-        <v>60.976069364</v>
+        <v>50.492371795</v>
       </c>
       <c r="U11" s="3">
-        <v>60.976069364</v>
+        <v>50.492371795</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W11" s="5">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="X11" s="5">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="Y11" s="4" t="s">
         <v>29</v>
@@ -1744,76 +1744,76 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7164</v>
+        <v>22595</v>
       </c>
       <c r="B12" s="3">
-        <v>5217.33</v>
+        <v>318.28</v>
       </c>
       <c r="C12" s="3">
-        <v>5217.33</v>
+        <v>318.28</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="3">
-        <v>5217.33</v>
+        <v>318.28</v>
       </c>
       <c r="F12" s="3">
-        <v>5217.33</v>
+        <v>318.28</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="3">
-        <v>153.450882353</v>
+        <v>318.28</v>
       </c>
       <c r="I12" s="3">
-        <v>153.450882353</v>
+        <v>318.28</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K12" s="3">
-        <v>153.45088235294116</v>
+        <v>318.28</v>
       </c>
       <c r="L12" s="3">
-        <v>153.45088235294116</v>
+        <v>318.28</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N12" s="3">
-        <v>2.588235294117647</v>
+        <v>5</v>
       </c>
       <c r="O12" s="3">
-        <v>2.588235294117647</v>
+        <v>5</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q12" s="5">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="R12" s="5">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T12" s="3">
-        <v>59.287840909</v>
+        <v>63.656</v>
       </c>
       <c r="U12" s="3">
-        <v>59.287840909</v>
+        <v>63.656</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W12" s="5">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="X12" s="5">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="Y12" s="4" t="s">
         <v>29</v>
@@ -1821,76 +1821,76 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>22595</v>
+        <v>4591</v>
       </c>
       <c r="B13" s="3">
-        <v>318.28</v>
+        <v>2972.1</v>
       </c>
       <c r="C13" s="3">
-        <v>318.28</v>
+        <v>2972.1</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="3">
-        <v>318.28</v>
+        <v>2972.1</v>
       </c>
       <c r="F13" s="3">
-        <v>318.28</v>
+        <v>2972.1</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="3">
-        <v>318.28</v>
+        <v>141.528571429</v>
       </c>
       <c r="I13" s="3">
-        <v>318.28</v>
+        <v>141.528571429</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K13" s="3">
-        <v>318.28</v>
+        <v>141.5285714285714</v>
       </c>
       <c r="L13" s="3">
-        <v>318.28</v>
+        <v>141.5285714285714</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N13" s="3">
-        <v>5</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="O13" s="3">
-        <v>5</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q13" s="5">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="R13" s="5">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T13" s="3">
-        <v>63.656</v>
+        <v>49.535</v>
       </c>
       <c r="U13" s="3">
-        <v>63.656</v>
+        <v>49.535</v>
       </c>
       <c r="V13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W13" s="5">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="X13" s="5">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="Y13" s="4" t="s">
         <v>29</v>
@@ -1898,76 +1898,76 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>4146</v>
+        <v>13898</v>
       </c>
       <c r="B14" s="3">
-        <v>4699.92</v>
+        <v>5276.02</v>
       </c>
       <c r="C14" s="3">
-        <v>4699.92</v>
+        <v>5276.02</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="3">
-        <v>4699.92</v>
+        <v>5276.02</v>
       </c>
       <c r="F14" s="3">
-        <v>4699.92</v>
+        <v>5276.02</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="3">
-        <v>130.553333333</v>
+        <v>142.595135135</v>
       </c>
       <c r="I14" s="3">
-        <v>130.553333333</v>
+        <v>142.595135135</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K14" s="3">
-        <v>130.55333333333334</v>
+        <v>142.59513513513514</v>
       </c>
       <c r="L14" s="3">
-        <v>130.55333333333334</v>
+        <v>142.59513513513514</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N14" s="3">
-        <v>2.638888888888889</v>
+        <v>2.4864864864864864</v>
       </c>
       <c r="O14" s="3">
-        <v>2.638888888888889</v>
+        <v>2.4864864864864864</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q14" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R14" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T14" s="3">
-        <v>49.472842105</v>
+        <v>57.348043478</v>
       </c>
       <c r="U14" s="3">
-        <v>49.472842105</v>
+        <v>57.348043478</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W14" s="5">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="X14" s="5">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Y14" s="4" t="s">
         <v>29</v>
@@ -1975,76 +1975,76 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>20138</v>
+        <v>4145</v>
       </c>
       <c r="B15" s="3">
-        <v>7522.65</v>
+        <v>5747.55</v>
       </c>
       <c r="C15" s="3">
-        <v>7522.65</v>
+        <v>5747.55</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="3">
-        <v>7522.65</v>
+        <v>5747.55</v>
       </c>
       <c r="F15" s="3">
-        <v>7522.65</v>
+        <v>5747.55</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="3">
-        <v>179.110714286</v>
+        <v>212.872222222</v>
       </c>
       <c r="I15" s="3">
-        <v>179.110714286</v>
+        <v>212.872222222</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K15" s="3">
-        <v>179.11071428571427</v>
+        <v>212.87222222222223</v>
       </c>
       <c r="L15" s="3">
-        <v>179.11071428571427</v>
+        <v>212.87222222222223</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N15" s="3">
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="O15" s="3">
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q15" s="5">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="R15" s="5">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T15" s="3">
-        <v>59.703571429</v>
+        <v>63.861666667</v>
       </c>
       <c r="U15" s="3">
-        <v>59.703571429</v>
+        <v>63.861666667</v>
       </c>
       <c r="V15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W15" s="5">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="X15" s="5">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="Y15" s="4" t="s">
         <v>29</v>
@@ -2052,76 +2052,76 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>18464</v>
+        <v>19832</v>
       </c>
       <c r="B16" s="3">
-        <v>5542.48</v>
+        <v>10548.86</v>
       </c>
       <c r="C16" s="3">
-        <v>5542.48</v>
+        <v>10548.86</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="3">
-        <v>5542.48</v>
+        <v>10548.86</v>
       </c>
       <c r="F16" s="3">
-        <v>5542.48</v>
+        <v>10548.86</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="3">
-        <v>145.854736842</v>
+        <v>181.876896552</v>
       </c>
       <c r="I16" s="3">
-        <v>145.854736842</v>
+        <v>181.876896552</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="3">
-        <v>145.85473684210524</v>
+        <v>181.87689655172414</v>
       </c>
       <c r="L16" s="3">
-        <v>145.85473684210524</v>
+        <v>181.87689655172414</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N16" s="3">
-        <v>2.8157894736842106</v>
+        <v>2.9827586206896552</v>
       </c>
       <c r="O16" s="3">
-        <v>2.8157894736842106</v>
+        <v>2.9827586206896552</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q16" s="5">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="R16" s="5">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T16" s="3">
-        <v>51.798878505</v>
+        <v>60.976069364</v>
       </c>
       <c r="U16" s="3">
-        <v>51.798878505</v>
+        <v>60.976069364</v>
       </c>
       <c r="V16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W16" s="5">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="X16" s="5">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="Y16" s="4" t="s">
         <v>29</v>
@@ -2129,76 +2129,76 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>911760</v>
+        <v>6005</v>
       </c>
       <c r="B17" s="3">
-        <v>2528.81</v>
+        <v>1730.25</v>
       </c>
       <c r="C17" s="3">
-        <v>2528.81</v>
+        <v>1730.25</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="3">
-        <v>2528.81</v>
+        <v>1730.25</v>
       </c>
       <c r="F17" s="3">
-        <v>2528.81</v>
+        <v>1730.25</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="3">
-        <v>81.574516129</v>
+        <v>157.295454545</v>
       </c>
       <c r="I17" s="3">
-        <v>81.574516129</v>
+        <v>157.295454545</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K17" s="3">
-        <v>81.57451612903226</v>
+        <v>157.29545454545453</v>
       </c>
       <c r="L17" s="3">
-        <v>81.57451612903226</v>
+        <v>157.29545454545453</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N17" s="3">
-        <v>1.967741935483871</v>
+        <v>2</v>
       </c>
       <c r="O17" s="3">
-        <v>1.967741935483871</v>
+        <v>2</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q17" s="5">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="R17" s="5">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T17" s="3">
-        <v>41.455901639</v>
+        <v>78.647727273</v>
       </c>
       <c r="U17" s="3">
-        <v>41.455901639</v>
+        <v>78.647727273</v>
       </c>
       <c r="V17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W17" s="5">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="X17" s="5">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="Y17" s="4" t="s">
         <v>29</v>
@@ -2206,76 +2206,76 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>14590</v>
+        <v>12816</v>
       </c>
       <c r="B18" s="3">
-        <v>3675.7</v>
+        <v>4902.95</v>
       </c>
       <c r="C18" s="3">
-        <v>3675.7</v>
+        <v>4902.95</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="3">
-        <v>3675.7</v>
+        <v>4902.95</v>
       </c>
       <c r="F18" s="3">
-        <v>3675.7</v>
+        <v>4902.95</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="3">
-        <v>126.748275862</v>
+        <v>175.105357143</v>
       </c>
       <c r="I18" s="3">
-        <v>126.748275862</v>
+        <v>175.105357143</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K18" s="3">
-        <v>126.74827586206897</v>
+        <v>175.10535714285714</v>
       </c>
       <c r="L18" s="3">
-        <v>126.74827586206897</v>
+        <v>175.10535714285714</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N18" s="3">
-        <v>2.7586206896551726</v>
+        <v>3.107142857142857</v>
       </c>
       <c r="O18" s="3">
-        <v>2.7586206896551726</v>
+        <v>3.107142857142857</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q18" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R18" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T18" s="3">
-        <v>45.94625</v>
+        <v>56.355747126</v>
       </c>
       <c r="U18" s="3">
-        <v>45.94625</v>
+        <v>56.355747126</v>
       </c>
       <c r="V18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W18" s="5">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="X18" s="5">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Y18" s="4" t="s">
         <v>29</v>
@@ -2283,76 +2283,76 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>4591</v>
+        <v>7164</v>
       </c>
       <c r="B19" s="3">
-        <v>2972.1</v>
+        <v>5217.33</v>
       </c>
       <c r="C19" s="3">
-        <v>2972.1</v>
+        <v>5217.33</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="3">
-        <v>2972.1</v>
+        <v>5217.33</v>
       </c>
       <c r="F19" s="3">
-        <v>2972.1</v>
+        <v>5217.33</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="3">
-        <v>141.528571429</v>
+        <v>153.450882353</v>
       </c>
       <c r="I19" s="3">
-        <v>141.528571429</v>
+        <v>153.450882353</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K19" s="3">
-        <v>141.5285714285714</v>
+        <v>153.45088235294116</v>
       </c>
       <c r="L19" s="3">
-        <v>141.5285714285714</v>
+        <v>153.45088235294116</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N19" s="3">
-        <v>2.857142857142857</v>
+        <v>2.588235294117647</v>
       </c>
       <c r="O19" s="3">
-        <v>2.857142857142857</v>
+        <v>2.588235294117647</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q19" s="5">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="R19" s="5">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="S19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T19" s="3">
-        <v>49.535</v>
+        <v>59.287840909</v>
       </c>
       <c r="U19" s="3">
-        <v>49.535</v>
+        <v>59.287840909</v>
       </c>
       <c r="V19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W19" s="5">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="X19" s="5">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y19" s="4" t="s">
         <v>29</v>
@@ -2360,76 +2360,76 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>13898</v>
+        <v>18464</v>
       </c>
       <c r="B20" s="3">
-        <v>5276.02</v>
+        <v>5542.48</v>
       </c>
       <c r="C20" s="3">
-        <v>5276.02</v>
+        <v>5542.48</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="3">
-        <v>5276.02</v>
+        <v>5542.48</v>
       </c>
       <c r="F20" s="3">
-        <v>5276.02</v>
+        <v>5542.48</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H20" s="3">
-        <v>142.595135135</v>
+        <v>145.854736842</v>
       </c>
       <c r="I20" s="3">
-        <v>142.595135135</v>
+        <v>145.854736842</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K20" s="3">
-        <v>142.59513513513514</v>
+        <v>145.85473684210524</v>
       </c>
       <c r="L20" s="3">
-        <v>142.59513513513514</v>
+        <v>145.85473684210524</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N20" s="3">
-        <v>2.4864864864864864</v>
+        <v>2.8157894736842106</v>
       </c>
       <c r="O20" s="3">
-        <v>2.4864864864864864</v>
+        <v>2.8157894736842106</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q20" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R20" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T20" s="3">
-        <v>57.348043478</v>
+        <v>51.798878505</v>
       </c>
       <c r="U20" s="3">
-        <v>57.348043478</v>
+        <v>51.798878505</v>
       </c>
       <c r="V20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W20" s="5">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="X20" s="5">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="Y20" s="4" t="s">
         <v>29</v>
@@ -2437,76 +2437,76 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>9009</v>
+        <v>4590</v>
       </c>
       <c r="B21" s="3">
-        <v>13577.9</v>
+        <v>7013.2</v>
       </c>
       <c r="C21" s="3">
-        <v>13577.9</v>
+        <v>7013.2</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="3">
-        <v>13577.9</v>
+        <v>7013.2</v>
       </c>
       <c r="F21" s="3">
-        <v>13577.9</v>
+        <v>7013.2</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="3">
-        <v>161.641666667</v>
+        <v>171.053658537</v>
       </c>
       <c r="I21" s="3">
-        <v>161.641666667</v>
+        <v>171.053658537</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K21" s="3">
-        <v>161.64166666666665</v>
+        <v>171.05365853658537</v>
       </c>
       <c r="L21" s="3">
-        <v>161.64166666666665</v>
+        <v>171.05365853658537</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N21" s="3">
-        <v>2.6904761904761907</v>
+        <v>2.8048780487804876</v>
       </c>
       <c r="O21" s="3">
-        <v>2.6904761904761907</v>
+        <v>2.8048780487804876</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q21" s="5">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="R21" s="5">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="S21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T21" s="3">
-        <v>60.07920354</v>
+        <v>60.984347826</v>
       </c>
       <c r="U21" s="3">
-        <v>60.07920354</v>
+        <v>60.984347826</v>
       </c>
       <c r="V21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W21" s="5">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="X21" s="5">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="Y21" s="4" t="s">
         <v>29</v>
@@ -2514,76 +2514,76 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>12550</v>
+        <v>12808</v>
       </c>
       <c r="B22" s="3">
-        <v>4276.31</v>
+        <v>2669.08</v>
       </c>
       <c r="C22" s="3">
-        <v>4276.31</v>
+        <v>2669.08</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="3">
-        <v>4276.31</v>
+        <v>2669.08</v>
       </c>
       <c r="F22" s="3">
-        <v>4276.31</v>
+        <v>2669.08</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="3">
-        <v>164.473461538</v>
+        <v>166.8175</v>
       </c>
       <c r="I22" s="3">
-        <v>164.473461538</v>
+        <v>166.8175</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K22" s="3">
-        <v>164.47346153846155</v>
+        <v>166.8175</v>
       </c>
       <c r="L22" s="3">
-        <v>164.47346153846155</v>
+        <v>166.8175</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N22" s="3">
-        <v>4.038461538461538</v>
+        <v>2.6875</v>
       </c>
       <c r="O22" s="3">
-        <v>4.038461538461538</v>
+        <v>2.6875</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q22" s="5">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="R22" s="5">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T22" s="3">
-        <v>40.726761905</v>
+        <v>62.071627907</v>
       </c>
       <c r="U22" s="3">
-        <v>40.726761905</v>
+        <v>62.071627907</v>
       </c>
       <c r="V22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W22" s="5">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="X22" s="5">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="Y22" s="4" t="s">
         <v>29</v>
@@ -2591,76 +2591,76 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>4590</v>
+        <v>911760</v>
       </c>
       <c r="B23" s="3">
-        <v>7013.2</v>
+        <v>2528.81</v>
       </c>
       <c r="C23" s="3">
-        <v>7013.2</v>
+        <v>2528.81</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="3">
-        <v>7013.2</v>
+        <v>2528.81</v>
       </c>
       <c r="F23" s="3">
-        <v>7013.2</v>
+        <v>2528.81</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="3">
-        <v>171.053658537</v>
+        <v>81.574516129</v>
       </c>
       <c r="I23" s="3">
-        <v>171.053658537</v>
+        <v>81.574516129</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K23" s="3">
-        <v>171.05365853658537</v>
+        <v>81.57451612903226</v>
       </c>
       <c r="L23" s="3">
-        <v>171.05365853658537</v>
+        <v>81.57451612903226</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N23" s="3">
-        <v>2.8048780487804876</v>
+        <v>1.967741935483871</v>
       </c>
       <c r="O23" s="3">
-        <v>2.8048780487804876</v>
+        <v>1.967741935483871</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q23" s="5">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="R23" s="5">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T23" s="3">
-        <v>60.984347826</v>
+        <v>41.455901639</v>
       </c>
       <c r="U23" s="3">
-        <v>60.984347826</v>
+        <v>41.455901639</v>
       </c>
       <c r="V23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W23" s="5">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="X23" s="5">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="Y23" s="4" t="s">
         <v>29</v>
@@ -2668,76 +2668,76 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>14502</v>
+        <v>14590</v>
       </c>
       <c r="B24" s="3">
-        <v>7529.68</v>
+        <v>3675.7</v>
       </c>
       <c r="C24" s="3">
-        <v>7529.68</v>
+        <v>3675.7</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="3">
-        <v>7529.68</v>
+        <v>3675.7</v>
       </c>
       <c r="F24" s="3">
-        <v>7529.68</v>
+        <v>3675.7</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H24" s="3">
-        <v>175.108837209</v>
+        <v>126.748275862</v>
       </c>
       <c r="I24" s="3">
-        <v>175.108837209</v>
+        <v>126.748275862</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K24" s="3">
-        <v>175.10883720930232</v>
+        <v>126.74827586206897</v>
       </c>
       <c r="L24" s="3">
-        <v>175.10883720930232</v>
+        <v>126.74827586206897</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N24" s="3">
-        <v>2.7674418604651163</v>
+        <v>2.7586206896551726</v>
       </c>
       <c r="O24" s="3">
-        <v>2.7674418604651163</v>
+        <v>2.7586206896551726</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q24" s="5">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="R24" s="5">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="S24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T24" s="3">
-        <v>63.274621849</v>
+        <v>45.94625</v>
       </c>
       <c r="U24" s="3">
-        <v>63.274621849</v>
+        <v>45.94625</v>
       </c>
       <c r="V24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W24" s="5">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="X24" s="5">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="Y24" s="4" t="s">
         <v>29</v>
@@ -2745,76 +2745,76 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>14586</v>
+        <v>9009</v>
       </c>
       <c r="B25" s="3">
-        <v>7876.81</v>
+        <v>13577.9</v>
       </c>
       <c r="C25" s="3">
-        <v>7876.81</v>
+        <v>13577.9</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="3">
-        <v>7876.81</v>
+        <v>13577.9</v>
       </c>
       <c r="F25" s="3">
-        <v>7876.81</v>
+        <v>13577.9</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H25" s="3">
-        <v>148.619056604</v>
+        <v>161.641666667</v>
       </c>
       <c r="I25" s="3">
-        <v>148.619056604</v>
+        <v>161.641666667</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="K25" s="3">
-        <v>148.6190566037736</v>
+        <v>161.64166666666665</v>
       </c>
       <c r="L25" s="3">
-        <v>148.6190566037736</v>
+        <v>161.64166666666665</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="N25" s="3">
-        <v>2.943396226415094</v>
+        <v>2.6904761904761907</v>
       </c>
       <c r="O25" s="3">
-        <v>2.943396226415094</v>
+        <v>2.6904761904761907</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q25" s="5">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="R25" s="5">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="S25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T25" s="3">
-        <v>50.492371795</v>
+        <v>60.07920354</v>
       </c>
       <c r="U25" s="3">
-        <v>50.492371795</v>
+        <v>60.07920354</v>
       </c>
       <c r="V25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W25" s="5">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="X25" s="5">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>29</v>
@@ -2921,900 +2921,900 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>4146</v>
+        <v>13898</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="3">
-        <v>988.09</v>
+        <v>1682.35</v>
       </c>
       <c r="D3" s="3">
-        <v>988.09</v>
+        <v>1682.35</v>
       </c>
       <c r="E3" s="3">
-        <v>109.787777778</v>
+        <v>152.940909091</v>
       </c>
       <c r="F3" s="3">
-        <v>109.78777777777778</v>
+        <v>152.9409090909091</v>
       </c>
       <c r="G3" s="3">
-        <v>3.111111111111111</v>
+        <v>2.8181818181818183</v>
       </c>
       <c r="H3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J3" s="3">
-        <v>35.288928571</v>
+        <v>54.269354839</v>
       </c>
       <c r="K3" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>14586</v>
+        <v>4146</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="3">
-        <v>1292</v>
+        <v>776.69</v>
       </c>
       <c r="D4" s="3">
-        <v>1292</v>
+        <v>776.69</v>
       </c>
       <c r="E4" s="3">
-        <v>184.571428571</v>
+        <v>97.08625</v>
       </c>
       <c r="F4" s="3">
-        <v>184.57142857142858</v>
+        <v>97.08625</v>
       </c>
       <c r="G4" s="3">
-        <v>4.285714285714286</v>
+        <v>2</v>
       </c>
       <c r="H4" s="9">
         <v>1</v>
       </c>
       <c r="I4" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="3">
-        <v>43.066666667</v>
+        <v>48.543125</v>
       </c>
       <c r="K4" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7448</v>
+        <v>12816</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="3">
-        <v>395.97</v>
+        <v>1154.54</v>
       </c>
       <c r="D5" s="3">
-        <v>395.97</v>
+        <v>1154.54</v>
       </c>
       <c r="E5" s="3">
-        <v>79.194</v>
+        <v>164.934285714</v>
       </c>
       <c r="F5" s="3">
-        <v>79.194</v>
+        <v>164.93428571428572</v>
       </c>
       <c r="G5" s="3">
-        <v>3.2</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="H5" s="9">
         <v>1</v>
       </c>
       <c r="I5" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="3">
-        <v>24.748125</v>
+        <v>57.727</v>
       </c>
       <c r="K5" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>19832</v>
+        <v>911760</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="3">
-        <v>1610.33</v>
+        <v>1049.05</v>
       </c>
       <c r="D6" s="3">
-        <v>1610.33</v>
+        <v>1049.05</v>
       </c>
       <c r="E6" s="3">
-        <v>322.066</v>
+        <v>74.932142857</v>
       </c>
       <c r="F6" s="3">
-        <v>322.066</v>
+        <v>74.93214285714285</v>
       </c>
       <c r="G6" s="3">
-        <v>3.4</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="H6" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J6" s="3">
-        <v>94.725294118</v>
+        <v>43.710416667</v>
       </c>
       <c r="K6" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7448</v>
+        <v>6417</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="3">
-        <v>1048.64</v>
+        <v>1842.51</v>
       </c>
       <c r="D7" s="3">
-        <v>1048.64</v>
+        <v>1842.51</v>
       </c>
       <c r="E7" s="3">
-        <v>524.32</v>
+        <v>153.5425</v>
       </c>
       <c r="F7" s="3">
-        <v>524.32</v>
+        <v>153.5425</v>
       </c>
       <c r="G7" s="3">
-        <v>4.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J7" s="3">
-        <v>116.515555556</v>
+        <v>57.5784375</v>
       </c>
       <c r="K7" s="9">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>911760</v>
+        <v>18464</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="3">
-        <v>1057.04</v>
+        <v>882.93</v>
       </c>
       <c r="D8" s="3">
-        <v>1057.04</v>
+        <v>882.93</v>
       </c>
       <c r="E8" s="3">
-        <v>75.502857143</v>
+        <v>126.132857143</v>
       </c>
       <c r="F8" s="3">
-        <v>75.50285714285714</v>
+        <v>126.13285714285713</v>
       </c>
       <c r="G8" s="3">
-        <v>1.5714285714285714</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="H8" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8" s="9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J8" s="3">
-        <v>48.047272727</v>
+        <v>58.862</v>
       </c>
       <c r="K8" s="9">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>6777</v>
+        <v>911760</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="3">
-        <v>1409.03</v>
+        <v>1057.04</v>
       </c>
       <c r="D9" s="3">
-        <v>1409.03</v>
+        <v>1057.04</v>
       </c>
       <c r="E9" s="3">
-        <v>176.12875</v>
+        <v>75.502857143</v>
       </c>
       <c r="F9" s="3">
-        <v>176.12875</v>
+        <v>75.50285714285714</v>
       </c>
       <c r="G9" s="3">
-        <v>2.5</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="H9" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I9" s="9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J9" s="3">
-        <v>70.4515</v>
+        <v>48.047272727</v>
       </c>
       <c r="K9" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>14590</v>
+        <v>4591</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="3">
-        <v>952.01</v>
+        <v>904.67</v>
       </c>
       <c r="D10" s="3">
-        <v>952.01</v>
+        <v>904.67</v>
       </c>
       <c r="E10" s="3">
-        <v>105.778888889</v>
+        <v>90.467</v>
       </c>
       <c r="F10" s="3">
-        <v>105.77888888888889</v>
+        <v>90.467</v>
       </c>
       <c r="G10" s="3">
-        <v>1.8888888888888888</v>
+        <v>2</v>
       </c>
       <c r="H10" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10" s="3">
-        <v>56.000588235</v>
+        <v>45.2335</v>
       </c>
       <c r="K10" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9009</v>
+        <v>22595</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="3">
-        <v>2859.57</v>
+        <v>318.28</v>
       </c>
       <c r="D11" s="3">
-        <v>2859.57</v>
+        <v>318.28</v>
       </c>
       <c r="E11" s="3">
-        <v>285.957</v>
+        <v>318.28</v>
       </c>
       <c r="F11" s="3">
-        <v>285.957</v>
+        <v>318.28</v>
       </c>
       <c r="G11" s="3">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="H11" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3">
-        <v>66.501627907</v>
+        <v>63.656</v>
       </c>
       <c r="K11" s="9">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>18464</v>
+        <v>12808</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="3">
-        <v>89.76</v>
+        <v>49.9</v>
       </c>
       <c r="D12" s="3">
-        <v>89.76</v>
+        <v>49.9</v>
       </c>
       <c r="E12" s="3">
-        <v>89.76</v>
+        <v>49.9</v>
       </c>
       <c r="F12" s="3">
-        <v>89.76</v>
+        <v>49.9</v>
       </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="9">
         <v>1</v>
       </c>
       <c r="J12" s="3">
-        <v>22.44</v>
+        <v>49.9</v>
       </c>
       <c r="K12" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>19832</v>
+        <v>12816</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="3">
-        <v>1788.38</v>
+        <v>242.28</v>
       </c>
       <c r="D13" s="3">
-        <v>1788.38</v>
+        <v>242.28</v>
       </c>
       <c r="E13" s="3">
-        <v>198.708888889</v>
+        <v>242.28</v>
       </c>
       <c r="F13" s="3">
-        <v>198.7088888888889</v>
+        <v>242.28</v>
       </c>
       <c r="G13" s="3">
-        <v>3.4444444444444446</v>
+        <v>2</v>
       </c>
       <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
         <v>1</v>
       </c>
-      <c r="I13" s="9">
-        <v>9</v>
-      </c>
       <c r="J13" s="3">
-        <v>57.689677419</v>
+        <v>121.14</v>
       </c>
       <c r="K13" s="9">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7164</v>
+        <v>4145</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="3">
-        <v>2680.35</v>
+        <v>1373.38</v>
       </c>
       <c r="D14" s="3">
-        <v>2680.35</v>
+        <v>1373.38</v>
       </c>
       <c r="E14" s="3">
-        <v>167.521875</v>
+        <v>228.896666667</v>
       </c>
       <c r="F14" s="3">
-        <v>167.521875</v>
+        <v>228.89666666666668</v>
       </c>
       <c r="G14" s="3">
-        <v>3.125</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="H14" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3">
-        <v>53.607</v>
+        <v>124.852727273</v>
       </c>
       <c r="K14" s="9">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14590</v>
+        <v>4146</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="3">
-        <v>986.06</v>
+        <v>444.41</v>
       </c>
       <c r="D15" s="3">
-        <v>986.06</v>
+        <v>444.41</v>
       </c>
       <c r="E15" s="3">
-        <v>109.562222222</v>
+        <v>111.1025</v>
       </c>
       <c r="F15" s="3">
-        <v>109.56222222222222</v>
+        <v>111.1025</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>36.520740741</v>
+        <v>55.55125</v>
       </c>
       <c r="K15" s="9">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>7164</v>
+        <v>19832</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="3">
-        <v>1284.84</v>
+        <v>1610.33</v>
       </c>
       <c r="D16" s="3">
-        <v>1284.84</v>
+        <v>1610.33</v>
       </c>
       <c r="E16" s="3">
-        <v>128.484</v>
+        <v>322.066</v>
       </c>
       <c r="F16" s="3">
-        <v>128.48399999999998</v>
+        <v>322.066</v>
       </c>
       <c r="G16" s="3">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H16" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J16" s="3">
-        <v>58.401818182</v>
+        <v>94.725294118</v>
       </c>
       <c r="K16" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>18464</v>
+        <v>6417</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="3">
-        <v>2786.54</v>
+        <v>886.03</v>
       </c>
       <c r="D17" s="3">
-        <v>2786.54</v>
+        <v>886.03</v>
       </c>
       <c r="E17" s="3">
-        <v>163.914117647</v>
+        <v>80.548181818</v>
       </c>
       <c r="F17" s="3">
-        <v>163.91411764705882</v>
+        <v>80.54818181818182</v>
       </c>
       <c r="G17" s="3">
-        <v>3.2941176470588234</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="H17" s="9">
         <v>5</v>
       </c>
       <c r="I17" s="9">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J17" s="3">
-        <v>49.759642857</v>
+        <v>44.3015</v>
       </c>
       <c r="K17" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>19832</v>
+        <v>13898</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="3">
-        <v>1708.66</v>
+        <v>2218.09</v>
       </c>
       <c r="D18" s="3">
-        <v>1708.66</v>
+        <v>2218.09</v>
       </c>
       <c r="E18" s="3">
-        <v>189.851111111</v>
+        <v>147.872666667</v>
       </c>
       <c r="F18" s="3">
-        <v>189.85111111111112</v>
+        <v>147.87266666666667</v>
       </c>
       <c r="G18" s="3">
-        <v>3.5555555555555554</v>
+        <v>2.2666666666666666</v>
       </c>
       <c r="H18" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" s="9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J18" s="3">
-        <v>53.395625</v>
+        <v>65.237941176</v>
       </c>
       <c r="K18" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>4146</v>
+        <v>14586</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="3">
-        <v>444.41</v>
+        <v>2234.77</v>
       </c>
       <c r="D19" s="3">
-        <v>444.41</v>
+        <v>2234.77</v>
       </c>
       <c r="E19" s="3">
-        <v>111.1025</v>
+        <v>131.457058824</v>
       </c>
       <c r="F19" s="3">
-        <v>111.1025</v>
+        <v>131.45705882352942</v>
       </c>
       <c r="G19" s="3">
-        <v>2</v>
+        <v>2.1176470588235294</v>
       </c>
       <c r="H19" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I19" s="9">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J19" s="3">
-        <v>55.55125</v>
+        <v>62.076944444</v>
       </c>
       <c r="K19" s="9">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>6417</v>
+        <v>9009</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="3">
-        <v>1229.11</v>
+        <v>1695.4</v>
       </c>
       <c r="D20" s="3">
-        <v>1229.11</v>
+        <v>1695.4</v>
       </c>
       <c r="E20" s="3">
-        <v>175.587142857</v>
+        <v>141.283333333</v>
       </c>
       <c r="F20" s="3">
-        <v>175.58714285714285</v>
+        <v>141.28333333333333</v>
       </c>
       <c r="G20" s="3">
-        <v>2.4285714285714284</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="H20" s="9">
         <v>2</v>
       </c>
       <c r="I20" s="9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J20" s="3">
-        <v>72.300588235</v>
+        <v>49.864705882</v>
       </c>
       <c r="K20" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19832</v>
+        <v>6005</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="3">
-        <v>1326.65</v>
+        <v>360.75</v>
       </c>
       <c r="D21" s="3">
-        <v>1326.65</v>
+        <v>360.75</v>
       </c>
       <c r="E21" s="3">
-        <v>165.83125</v>
+        <v>360.75</v>
       </c>
       <c r="F21" s="3">
-        <v>165.83125</v>
+        <v>360.75</v>
       </c>
       <c r="G21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H21" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3">
-        <v>82.915625</v>
+        <v>72.15</v>
       </c>
       <c r="K21" s="9">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>19832</v>
+        <v>12808</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="3">
-        <v>452.9</v>
+        <v>787.02</v>
       </c>
       <c r="D22" s="3">
-        <v>452.9</v>
+        <v>787.02</v>
       </c>
       <c r="E22" s="3">
-        <v>90.58</v>
+        <v>112.431428571</v>
       </c>
       <c r="F22" s="3">
-        <v>90.58</v>
+        <v>112.43142857142857</v>
       </c>
       <c r="G22" s="3">
-        <v>2.8</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J22" s="3">
-        <v>32.35</v>
+        <v>43.723333333</v>
       </c>
       <c r="K22" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>4590</v>
+        <v>14502</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="3">
-        <v>1487.07</v>
+        <v>907.83</v>
       </c>
       <c r="D23" s="3">
-        <v>1487.07</v>
+        <v>907.83</v>
       </c>
       <c r="E23" s="3">
-        <v>185.88375</v>
+        <v>151.305</v>
       </c>
       <c r="F23" s="3">
-        <v>185.88375</v>
+        <v>151.305</v>
       </c>
       <c r="G23" s="3">
-        <v>2.75</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="H23" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J23" s="3">
-        <v>67.594090909</v>
+        <v>64.845</v>
       </c>
       <c r="K23" s="9">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>14586</v>
+        <v>19832</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="3">
-        <v>768.02</v>
+        <v>1788.38</v>
       </c>
       <c r="D24" s="3">
-        <v>768.02</v>
+        <v>1788.38</v>
       </c>
       <c r="E24" s="3">
-        <v>256.006666667</v>
+        <v>198.708888889</v>
       </c>
       <c r="F24" s="3">
-        <v>256.00666666666666</v>
+        <v>198.7088888888889</v>
       </c>
       <c r="G24" s="3">
-        <v>4.333333333333333</v>
+        <v>3.4444444444444446</v>
       </c>
       <c r="H24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J24" s="3">
-        <v>59.078461538</v>
+        <v>57.689677419</v>
       </c>
       <c r="K24" s="9">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>4590</v>
+        <v>19832</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="3">
-        <v>698.56</v>
+        <v>1326.65</v>
       </c>
       <c r="D25" s="3">
-        <v>698.56</v>
+        <v>1326.65</v>
       </c>
       <c r="E25" s="3">
-        <v>139.712</v>
+        <v>165.83125</v>
       </c>
       <c r="F25" s="3">
-        <v>139.712</v>
+        <v>165.83125</v>
       </c>
       <c r="G25" s="3">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H25" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J25" s="3">
-        <v>53.735384615</v>
+        <v>82.915625</v>
       </c>
       <c r="K25" s="9">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>12808</v>
+        <v>7164</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="3">
-        <v>49.9</v>
+        <v>1284.84</v>
       </c>
       <c r="D26" s="3">
-        <v>49.9</v>
+        <v>1284.84</v>
       </c>
       <c r="E26" s="3">
-        <v>49.9</v>
+        <v>128.484</v>
       </c>
       <c r="F26" s="3">
-        <v>49.9</v>
+        <v>128.48399999999998</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H26" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J26" s="3">
-        <v>49.9</v>
+        <v>58.401818182</v>
       </c>
       <c r="K26" s="9">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>4146</v>
+        <v>7448</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="3">
-        <v>79.8</v>
+        <v>648.26</v>
       </c>
       <c r="D27" s="3">
-        <v>79.8</v>
+        <v>648.26</v>
       </c>
       <c r="E27" s="3">
-        <v>79.8</v>
+        <v>92.608571429</v>
       </c>
       <c r="F27" s="3">
-        <v>79.8</v>
+        <v>92.60857142857142</v>
       </c>
       <c r="G27" s="3">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="H27" s="9">
         <v>2</v>
       </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
       <c r="I27" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J27" s="3">
-        <v>39.9</v>
+        <v>32.413</v>
       </c>
       <c r="K27" s="9">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>20138</v>
+        <v>9009</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="3">
-        <v>1772.02</v>
+        <v>2859.57</v>
       </c>
       <c r="D28" s="3">
-        <v>1772.02</v>
+        <v>2859.57</v>
       </c>
       <c r="E28" s="3">
-        <v>177.202</v>
+        <v>285.957</v>
       </c>
       <c r="F28" s="3">
-        <v>177.202</v>
+        <v>285.957</v>
       </c>
       <c r="G28" s="3">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="H28" s="9">
         <v>2</v>
@@ -3823,430 +3823,430 @@
         <v>10</v>
       </c>
       <c r="J28" s="3">
-        <v>65.63037037</v>
+        <v>66.501627907</v>
       </c>
       <c r="K28" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>4146</v>
+        <v>12550</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="3">
-        <v>776.69</v>
+        <v>2433.87</v>
       </c>
       <c r="D29" s="3">
-        <v>776.69</v>
+        <v>2433.87</v>
       </c>
       <c r="E29" s="3">
-        <v>97.08625</v>
+        <v>143.168823529</v>
       </c>
       <c r="F29" s="3">
-        <v>97.08625</v>
+        <v>143.16882352941175</v>
       </c>
       <c r="G29" s="3">
-        <v>2</v>
+        <v>2.8823529411764706</v>
       </c>
       <c r="H29" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" s="9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J29" s="3">
-        <v>48.543125</v>
+        <v>49.670816327</v>
       </c>
       <c r="K29" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>12808</v>
+        <v>4145</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="3">
-        <v>787.02</v>
+        <v>1108.11</v>
       </c>
       <c r="D30" s="3">
-        <v>787.02</v>
+        <v>1108.11</v>
       </c>
       <c r="E30" s="3">
-        <v>112.431428571</v>
+        <v>138.51375</v>
       </c>
       <c r="F30" s="3">
-        <v>112.43142857142857</v>
+        <v>138.51375</v>
       </c>
       <c r="G30" s="3">
-        <v>2.5714285714285716</v>
+        <v>3.875</v>
       </c>
       <c r="H30" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J30" s="3">
-        <v>43.723333333</v>
+        <v>35.745483871</v>
       </c>
       <c r="K30" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>14586</v>
+        <v>9009</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="3">
-        <v>997.67</v>
+        <v>1680.03</v>
       </c>
       <c r="D31" s="3">
-        <v>997.67</v>
+        <v>1680.03</v>
       </c>
       <c r="E31" s="3">
-        <v>249.4175</v>
+        <v>140.0025</v>
       </c>
       <c r="F31" s="3">
-        <v>249.4175</v>
+        <v>140.0025</v>
       </c>
       <c r="G31" s="3">
-        <v>4</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="H31" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J31" s="3">
-        <v>62.354375</v>
+        <v>64.616538462</v>
       </c>
       <c r="K31" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>9009</v>
+        <v>12816</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="3">
-        <v>418.69</v>
+        <v>462.25</v>
       </c>
       <c r="D32" s="3">
-        <v>418.69</v>
+        <v>462.25</v>
       </c>
       <c r="E32" s="3">
-        <v>104.6725</v>
+        <v>92.45</v>
       </c>
       <c r="F32" s="3">
-        <v>104.6725</v>
+        <v>92.45</v>
       </c>
       <c r="G32" s="3">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H32" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32" s="3">
-        <v>41.869</v>
+        <v>51.361111111</v>
       </c>
       <c r="K32" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>12550</v>
+        <v>19832</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="3">
-        <v>2433.87</v>
+        <v>452.9</v>
       </c>
       <c r="D33" s="3">
-        <v>2433.87</v>
+        <v>452.9</v>
       </c>
       <c r="E33" s="3">
-        <v>143.168823529</v>
+        <v>90.58</v>
       </c>
       <c r="F33" s="3">
-        <v>143.16882352941175</v>
+        <v>90.58</v>
       </c>
       <c r="G33" s="3">
-        <v>2.8823529411764706</v>
+        <v>2.8</v>
       </c>
       <c r="H33" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" s="9">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J33" s="3">
-        <v>49.670816327</v>
+        <v>32.35</v>
       </c>
       <c r="K33" s="9">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>12816</v>
+        <v>14586</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C34" s="3">
-        <v>242.28</v>
+        <v>1292</v>
       </c>
       <c r="D34" s="3">
-        <v>242.28</v>
+        <v>1292</v>
       </c>
       <c r="E34" s="3">
-        <v>242.28</v>
+        <v>184.571428571</v>
       </c>
       <c r="F34" s="3">
-        <v>242.28</v>
+        <v>184.57142857142858</v>
       </c>
       <c r="G34" s="3">
-        <v>2</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="H34" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J34" s="3">
-        <v>121.14</v>
+        <v>43.066666667</v>
       </c>
       <c r="K34" s="9">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>14590</v>
+        <v>14586</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" s="3">
-        <v>1025.18</v>
+        <v>1012.67</v>
       </c>
       <c r="D35" s="3">
-        <v>1025.18</v>
+        <v>1012.67</v>
       </c>
       <c r="E35" s="3">
-        <v>170.863333333</v>
+        <v>101.267</v>
       </c>
       <c r="F35" s="3">
-        <v>170.86333333333334</v>
+        <v>101.267</v>
       </c>
       <c r="G35" s="3">
-        <v>4.166666666666667</v>
+        <v>2.4</v>
       </c>
       <c r="H35" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I35" s="9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J35" s="3">
-        <v>41.0072</v>
+        <v>42.194583333</v>
       </c>
       <c r="K35" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>20138</v>
+        <v>13898</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" s="3">
-        <v>2491.96</v>
+        <v>1375.58</v>
       </c>
       <c r="D36" s="3">
-        <v>2491.96</v>
+        <v>1375.58</v>
       </c>
       <c r="E36" s="3">
-        <v>191.689230769</v>
+        <v>125.052727273</v>
       </c>
       <c r="F36" s="3">
-        <v>191.68923076923076</v>
+        <v>125.05272727272727</v>
       </c>
       <c r="G36" s="3">
-        <v>3.3846153846153846</v>
+        <v>2.4545454545454546</v>
       </c>
       <c r="H36" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I36" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J36" s="3">
-        <v>56.635454545</v>
+        <v>50.947407407</v>
       </c>
       <c r="K36" s="9">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>13898</v>
+        <v>14586</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C37" s="3">
-        <v>2218.09</v>
+        <v>1571.68</v>
       </c>
       <c r="D37" s="3">
-        <v>2218.09</v>
+        <v>1571.68</v>
       </c>
       <c r="E37" s="3">
-        <v>147.872666667</v>
+        <v>130.973333333</v>
       </c>
       <c r="F37" s="3">
-        <v>147.87266666666667</v>
+        <v>130.97333333333333</v>
       </c>
       <c r="G37" s="3">
-        <v>2.2666666666666666</v>
+        <v>3.0833333333333335</v>
       </c>
       <c r="H37" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J37" s="3">
-        <v>65.237941176</v>
+        <v>42.477837838</v>
       </c>
       <c r="K37" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>14502</v>
+        <v>6005</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C38" s="3">
-        <v>1117.32</v>
+        <v>725.2</v>
       </c>
       <c r="D38" s="3">
-        <v>1117.32</v>
+        <v>725.2</v>
       </c>
       <c r="E38" s="3">
-        <v>124.146666667</v>
+        <v>145.04</v>
       </c>
       <c r="F38" s="3">
-        <v>124.14666666666666</v>
+        <v>145.04000000000002</v>
       </c>
       <c r="G38" s="3">
-        <v>2.3333333333333335</v>
+        <v>1.4</v>
       </c>
       <c r="H38" s="9">
         <v>3</v>
       </c>
       <c r="I38" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J38" s="3">
-        <v>53.205714286</v>
+        <v>103.6</v>
       </c>
       <c r="K38" s="9">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>19832</v>
+        <v>14590</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C39" s="3">
-        <v>134.58</v>
+        <v>712.45</v>
       </c>
       <c r="D39" s="3">
-        <v>134.58</v>
+        <v>712.45</v>
       </c>
       <c r="E39" s="3">
-        <v>134.58</v>
+        <v>142.49</v>
       </c>
       <c r="F39" s="3">
-        <v>134.58</v>
+        <v>142.49</v>
       </c>
       <c r="G39" s="3">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H39" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J39" s="3">
-        <v>19.225714286</v>
+        <v>64.768181818</v>
       </c>
       <c r="K39" s="9">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>12816</v>
+        <v>6417</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C40" s="3">
-        <v>1154.54</v>
+        <v>1229.11</v>
       </c>
       <c r="D40" s="3">
-        <v>1154.54</v>
+        <v>1229.11</v>
       </c>
       <c r="E40" s="3">
-        <v>164.934285714</v>
+        <v>175.587142857</v>
       </c>
       <c r="F40" s="3">
-        <v>164.93428571428572</v>
+        <v>175.58714285714285</v>
       </c>
       <c r="G40" s="3">
-        <v>2.857142857142857</v>
+        <v>2.4285714285714284</v>
       </c>
       <c r="H40" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" s="9">
         <v>7</v>
       </c>
       <c r="J40" s="3">
-        <v>57.727</v>
+        <v>72.300588235</v>
       </c>
       <c r="K40" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -4254,661 +4254,661 @@
         <v>19832</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3">
-        <v>859.23</v>
+        <v>134.58</v>
       </c>
       <c r="D41" s="3">
-        <v>859.23</v>
+        <v>134.58</v>
       </c>
       <c r="E41" s="3">
-        <v>171.846</v>
+        <v>134.58</v>
       </c>
       <c r="F41" s="3">
-        <v>171.846</v>
+        <v>134.58</v>
       </c>
       <c r="G41" s="3">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
         <v>1</v>
       </c>
-      <c r="I41" s="9">
-        <v>5</v>
-      </c>
       <c r="J41" s="3">
-        <v>71.6025</v>
+        <v>19.225714286</v>
       </c>
       <c r="K41" s="9">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>6417</v>
+        <v>6005</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C42" s="3">
-        <v>853.53</v>
+        <v>94.97</v>
       </c>
       <c r="D42" s="3">
-        <v>853.53</v>
+        <v>94.97</v>
       </c>
       <c r="E42" s="3">
-        <v>142.255</v>
+        <v>94.97</v>
       </c>
       <c r="F42" s="3">
-        <v>142.255</v>
+        <v>94.97</v>
       </c>
       <c r="G42" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H42" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J42" s="3">
-        <v>56.902</v>
+        <v>31.656666667</v>
       </c>
       <c r="K42" s="9">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>12808</v>
+        <v>4591</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43" s="3">
-        <v>1832.16</v>
+        <v>1335.05</v>
       </c>
       <c r="D43" s="3">
-        <v>1832.16</v>
+        <v>1335.05</v>
       </c>
       <c r="E43" s="3">
-        <v>229.02</v>
+        <v>222.508333333</v>
       </c>
       <c r="F43" s="3">
-        <v>229.02</v>
+        <v>222.50833333333333</v>
       </c>
       <c r="G43" s="3">
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="H43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J43" s="3">
-        <v>76.34</v>
+        <v>66.7525</v>
       </c>
       <c r="K43" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>12816</v>
+        <v>19832</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C44" s="3">
-        <v>462.25</v>
+        <v>738.74</v>
       </c>
       <c r="D44" s="3">
-        <v>462.25</v>
+        <v>738.74</v>
       </c>
       <c r="E44" s="3">
-        <v>92.45</v>
+        <v>147.748</v>
       </c>
       <c r="F44" s="3">
-        <v>92.45</v>
+        <v>147.748</v>
       </c>
       <c r="G44" s="3">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H44" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" s="9">
         <v>5</v>
       </c>
       <c r="J44" s="3">
-        <v>51.361111111</v>
+        <v>56.826153846</v>
       </c>
       <c r="K44" s="9">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>19832</v>
+        <v>20138</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C45" s="3">
-        <v>547.94</v>
+        <v>1659.9</v>
       </c>
       <c r="D45" s="3">
-        <v>547.94</v>
+        <v>1659.9</v>
       </c>
       <c r="E45" s="3">
-        <v>182.646666667</v>
+        <v>150.9</v>
       </c>
       <c r="F45" s="3">
-        <v>182.64666666666668</v>
+        <v>150.9</v>
       </c>
       <c r="G45" s="3">
-        <v>2</v>
+        <v>3.3636363636363638</v>
       </c>
       <c r="H45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J45" s="3">
-        <v>91.323333333</v>
+        <v>44.862162162</v>
       </c>
       <c r="K45" s="9">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>20138</v>
+        <v>19832</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C46" s="3">
-        <v>920.8</v>
+        <v>151.2</v>
       </c>
       <c r="D46" s="3">
-        <v>920.8</v>
+        <v>151.2</v>
       </c>
       <c r="E46" s="3">
-        <v>230.2</v>
+        <v>151.2</v>
       </c>
       <c r="F46" s="3">
-        <v>230.2</v>
+        <v>151.2</v>
       </c>
       <c r="G46" s="3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H46" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" s="9">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>37.8</v>
+      </c>
+      <c r="K46" s="9">
         <v>4</v>
-      </c>
-      <c r="J46" s="3">
-        <v>92.08</v>
-      </c>
-      <c r="K46" s="9">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>13898</v>
+        <v>7448</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C47" s="3">
-        <v>1375.58</v>
+        <v>1048.64</v>
       </c>
       <c r="D47" s="3">
-        <v>1375.58</v>
+        <v>1048.64</v>
       </c>
       <c r="E47" s="3">
-        <v>125.052727273</v>
+        <v>524.32</v>
       </c>
       <c r="F47" s="3">
-        <v>125.05272727272727</v>
+        <v>524.32</v>
       </c>
       <c r="G47" s="3">
-        <v>2.4545454545454546</v>
+        <v>4.5</v>
       </c>
       <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
         <v>2</v>
       </c>
-      <c r="I47" s="9">
-        <v>11</v>
-      </c>
       <c r="J47" s="3">
-        <v>50.947407407</v>
+        <v>116.515555556</v>
       </c>
       <c r="K47" s="9">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>4146</v>
+        <v>14590</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C48" s="3">
-        <v>2410.93</v>
+        <v>952.01</v>
       </c>
       <c r="D48" s="3">
-        <v>2410.93</v>
+        <v>952.01</v>
       </c>
       <c r="E48" s="3">
-        <v>172.209285714</v>
+        <v>105.778888889</v>
       </c>
       <c r="F48" s="3">
-        <v>172.2092857142857</v>
+        <v>105.77888888888889</v>
       </c>
       <c r="G48" s="3">
-        <v>2.9285714285714284</v>
+        <v>1.8888888888888888</v>
       </c>
       <c r="H48" s="9">
         <v>2</v>
       </c>
       <c r="I48" s="9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J48" s="3">
-        <v>58.803170732</v>
+        <v>56.000588235</v>
       </c>
       <c r="K48" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>12816</v>
+        <v>20138</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C49" s="3">
-        <v>3043.88</v>
+        <v>920.8</v>
       </c>
       <c r="D49" s="3">
-        <v>3043.88</v>
+        <v>920.8</v>
       </c>
       <c r="E49" s="3">
-        <v>202.925333333</v>
+        <v>230.2</v>
       </c>
       <c r="F49" s="3">
-        <v>202.92533333333333</v>
+        <v>230.2</v>
       </c>
       <c r="G49" s="3">
-        <v>3.7333333333333334</v>
+        <v>2.5</v>
       </c>
       <c r="H49" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" s="9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J49" s="3">
-        <v>54.355</v>
+        <v>92.08</v>
       </c>
       <c r="K49" s="9">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>13898</v>
+        <v>4590</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C50" s="3">
-        <v>1682.35</v>
+        <v>698.56</v>
       </c>
       <c r="D50" s="3">
-        <v>1682.35</v>
+        <v>698.56</v>
       </c>
       <c r="E50" s="3">
-        <v>152.940909091</v>
+        <v>139.712</v>
       </c>
       <c r="F50" s="3">
-        <v>152.9409090909091</v>
+        <v>139.712</v>
       </c>
       <c r="G50" s="3">
-        <v>2.8181818181818183</v>
+        <v>2.6</v>
       </c>
       <c r="H50" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" s="9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J50" s="3">
-        <v>54.269354839</v>
+        <v>53.735384615</v>
       </c>
       <c r="K50" s="9">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>14586</v>
+        <v>19832</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C51" s="3">
-        <v>2234.77</v>
+        <v>1708.66</v>
       </c>
       <c r="D51" s="3">
-        <v>2234.77</v>
+        <v>1708.66</v>
       </c>
       <c r="E51" s="3">
-        <v>131.457058824</v>
+        <v>189.851111111</v>
       </c>
       <c r="F51" s="3">
-        <v>131.45705882352942</v>
+        <v>189.85111111111112</v>
       </c>
       <c r="G51" s="3">
-        <v>2.1176470588235294</v>
+        <v>3.5555555555555554</v>
       </c>
       <c r="H51" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I51" s="9">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J51" s="3">
-        <v>62.076944444</v>
+        <v>53.395625</v>
       </c>
       <c r="K51" s="9">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>6005</v>
+        <v>7164</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C52" s="3">
-        <v>360.75</v>
+        <v>2680.35</v>
       </c>
       <c r="D52" s="3">
-        <v>360.75</v>
+        <v>2680.35</v>
       </c>
       <c r="E52" s="3">
-        <v>360.75</v>
+        <v>167.521875</v>
       </c>
       <c r="F52" s="3">
-        <v>360.75</v>
+        <v>167.521875</v>
       </c>
       <c r="G52" s="3">
-        <v>5</v>
+        <v>3.125</v>
       </c>
       <c r="H52" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52" s="9">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J52" s="3">
-        <v>72.15</v>
+        <v>53.607</v>
       </c>
       <c r="K52" s="9">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>6777</v>
+        <v>14502</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="3">
-        <v>1843.56</v>
+        <v>52.72</v>
       </c>
       <c r="D53" s="3">
-        <v>1843.56</v>
+        <v>52.72</v>
       </c>
       <c r="E53" s="3">
-        <v>230.445</v>
+        <v>52.72</v>
       </c>
       <c r="F53" s="3">
-        <v>230.445</v>
+        <v>52.72</v>
       </c>
       <c r="G53" s="3">
-        <v>3.375</v>
+        <v>1</v>
       </c>
       <c r="H53" s="9">
         <v>1</v>
       </c>
       <c r="I53" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J53" s="3">
-        <v>68.28</v>
+        <v>52.72</v>
       </c>
       <c r="K53" s="9">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>9009</v>
+        <v>12816</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C54" s="3">
-        <v>2006.47</v>
+        <v>3043.88</v>
       </c>
       <c r="D54" s="3">
-        <v>2006.47</v>
+        <v>3043.88</v>
       </c>
       <c r="E54" s="3">
-        <v>250.80875</v>
+        <v>202.925333333</v>
       </c>
       <c r="F54" s="3">
-        <v>250.80875</v>
+        <v>202.92533333333333</v>
       </c>
       <c r="G54" s="3">
-        <v>3.125</v>
+        <v>3.7333333333333334</v>
       </c>
       <c r="H54" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J54" s="3">
-        <v>80.2588</v>
+        <v>54.355</v>
       </c>
       <c r="K54" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7448</v>
+        <v>9009</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C55" s="3">
-        <v>1335.95</v>
+        <v>418.69</v>
       </c>
       <c r="D55" s="3">
-        <v>1335.95</v>
+        <v>418.69</v>
       </c>
       <c r="E55" s="3">
-        <v>190.85</v>
+        <v>104.6725</v>
       </c>
       <c r="F55" s="3">
-        <v>190.85</v>
+        <v>104.6725</v>
       </c>
       <c r="G55" s="3">
-        <v>3.142857142857143</v>
+        <v>2.5</v>
       </c>
       <c r="H55" s="9">
         <v>1</v>
       </c>
       <c r="I55" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J55" s="3">
-        <v>60.725</v>
+        <v>41.869</v>
       </c>
       <c r="K55" s="9">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>911760</v>
+        <v>7448</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C56" s="3">
-        <v>1049.05</v>
+        <v>395.97</v>
       </c>
       <c r="D56" s="3">
-        <v>1049.05</v>
+        <v>395.97</v>
       </c>
       <c r="E56" s="3">
-        <v>74.932142857</v>
+        <v>79.194</v>
       </c>
       <c r="F56" s="3">
-        <v>74.93214285714285</v>
+        <v>79.194</v>
       </c>
       <c r="G56" s="3">
-        <v>1.7142857142857142</v>
+        <v>3.2</v>
       </c>
       <c r="H56" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I56" s="9">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J56" s="3">
-        <v>43.710416667</v>
+        <v>24.748125</v>
       </c>
       <c r="K56" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>4145</v>
+        <v>14590</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="3">
-        <v>1866.07</v>
+        <v>986.06</v>
       </c>
       <c r="D57" s="3">
-        <v>1866.07</v>
+        <v>986.06</v>
       </c>
       <c r="E57" s="3">
-        <v>311.011666667</v>
+        <v>109.562222222</v>
       </c>
       <c r="F57" s="3">
-        <v>311.01166666666666</v>
+        <v>109.56222222222222</v>
       </c>
       <c r="G57" s="3">
-        <v>4.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="H57" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J57" s="3">
-        <v>71.771923077</v>
+        <v>36.520740741</v>
       </c>
       <c r="K57" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>9009</v>
+        <v>4590</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C58" s="3">
-        <v>1695.4</v>
+        <v>1366.79</v>
       </c>
       <c r="D58" s="3">
-        <v>1695.4</v>
+        <v>1366.79</v>
       </c>
       <c r="E58" s="3">
-        <v>141.283333333</v>
+        <v>170.84875</v>
       </c>
       <c r="F58" s="3">
-        <v>141.28333333333333</v>
+        <v>170.84875</v>
       </c>
       <c r="G58" s="3">
-        <v>2.8333333333333335</v>
+        <v>2.875</v>
       </c>
       <c r="H58" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J58" s="3">
-        <v>49.864705882</v>
+        <v>59.425652174</v>
       </c>
       <c r="K58" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>6417</v>
+        <v>4591</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C59" s="3">
-        <v>886.03</v>
+        <v>732.38</v>
       </c>
       <c r="D59" s="3">
-        <v>886.03</v>
+        <v>732.38</v>
       </c>
       <c r="E59" s="3">
-        <v>80.548181818</v>
+        <v>146.476</v>
       </c>
       <c r="F59" s="3">
-        <v>80.54818181818182</v>
+        <v>146.476</v>
       </c>
       <c r="G59" s="3">
-        <v>1.8181818181818181</v>
+        <v>4</v>
       </c>
       <c r="H59" s="9">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
         <v>5</v>
       </c>
-      <c r="I59" s="9">
-        <v>11</v>
-      </c>
       <c r="J59" s="3">
-        <v>44.3015</v>
+        <v>36.619</v>
       </c>
       <c r="K59" s="9">
         <v>20</v>
@@ -4916,107 +4916,107 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>12550</v>
+        <v>7448</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C60" s="3">
-        <v>1842.44</v>
+        <v>1091.98</v>
       </c>
       <c r="D60" s="3">
-        <v>1842.44</v>
+        <v>1091.98</v>
       </c>
       <c r="E60" s="3">
-        <v>204.715555556</v>
+        <v>155.997142857</v>
       </c>
       <c r="F60" s="3">
-        <v>204.71555555555557</v>
+        <v>155.99714285714285</v>
       </c>
       <c r="G60" s="3">
-        <v>6.222222222222222</v>
+        <v>3.7142857142857144</v>
       </c>
       <c r="H60" s="9">
         <v>0</v>
       </c>
       <c r="I60" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J60" s="3">
-        <v>32.900714286</v>
+        <v>41.999230769</v>
       </c>
       <c r="K60" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>9009</v>
+        <v>14586</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C61" s="3">
-        <v>2383.53</v>
+        <v>768.02</v>
       </c>
       <c r="D61" s="3">
-        <v>2383.53</v>
+        <v>768.02</v>
       </c>
       <c r="E61" s="3">
-        <v>140.207647059</v>
+        <v>256.006666667</v>
       </c>
       <c r="F61" s="3">
-        <v>140.20764705882354</v>
+        <v>256.00666666666666</v>
       </c>
       <c r="G61" s="3">
-        <v>2.2941176470588234</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H61" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" s="9">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J61" s="3">
-        <v>61.116153846</v>
+        <v>59.078461538</v>
       </c>
       <c r="K61" s="9">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>18464</v>
+        <v>14502</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C62" s="3">
-        <v>882.93</v>
+        <v>1117.32</v>
       </c>
       <c r="D62" s="3">
-        <v>882.93</v>
+        <v>1117.32</v>
       </c>
       <c r="E62" s="3">
-        <v>126.132857143</v>
+        <v>124.146666667</v>
       </c>
       <c r="F62" s="3">
-        <v>126.13285714285713</v>
+        <v>124.14666666666666</v>
       </c>
       <c r="G62" s="3">
-        <v>2.142857142857143</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="H62" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J62" s="3">
-        <v>58.862</v>
+        <v>53.205714286</v>
       </c>
       <c r="K62" s="9">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -5027,206 +5027,206 @@
         <v>92</v>
       </c>
       <c r="C63" s="3">
-        <v>2200.08</v>
+        <v>533.98</v>
       </c>
       <c r="D63" s="3">
-        <v>2200.08</v>
+        <v>533.98</v>
       </c>
       <c r="E63" s="3">
-        <v>200.007272727</v>
+        <v>133.495</v>
       </c>
       <c r="F63" s="3">
-        <v>200.00727272727272</v>
+        <v>133.495</v>
       </c>
       <c r="G63" s="3">
-        <v>2.8181818181818183</v>
+        <v>2.25</v>
       </c>
       <c r="H63" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I63" s="9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J63" s="3">
-        <v>70.970322581</v>
+        <v>59.331111111</v>
       </c>
       <c r="K63" s="9">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>911760</v>
+        <v>9009</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C64" s="3">
-        <v>422.72</v>
+        <v>1927.96</v>
       </c>
       <c r="D64" s="3">
-        <v>422.72</v>
+        <v>1927.96</v>
       </c>
       <c r="E64" s="3">
-        <v>140.906666667</v>
+        <v>120.4975</v>
       </c>
       <c r="F64" s="3">
-        <v>140.90666666666667</v>
+        <v>120.4975</v>
       </c>
       <c r="G64" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="H64" s="9">
         <v>5</v>
       </c>
-      <c r="H64" s="9">
-        <v>0</v>
-      </c>
       <c r="I64" s="9">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J64" s="3">
-        <v>28.181333333</v>
+        <v>53.554444444</v>
       </c>
       <c r="K64" s="9">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>14502</v>
+        <v>911760</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C65" s="3">
-        <v>907.83</v>
+        <v>422.72</v>
       </c>
       <c r="D65" s="3">
-        <v>907.83</v>
+        <v>422.72</v>
       </c>
       <c r="E65" s="3">
-        <v>151.305</v>
+        <v>140.906666667</v>
       </c>
       <c r="F65" s="3">
-        <v>151.305</v>
+        <v>140.90666666666667</v>
       </c>
       <c r="G65" s="3">
-        <v>2.3333333333333335</v>
+        <v>5</v>
       </c>
       <c r="H65" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J65" s="3">
-        <v>64.845</v>
+        <v>28.181333333</v>
       </c>
       <c r="K65" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>9009</v>
+        <v>6005</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C66" s="3">
-        <v>1680.03</v>
+        <v>549.33</v>
       </c>
       <c r="D66" s="3">
-        <v>1680.03</v>
+        <v>549.33</v>
       </c>
       <c r="E66" s="3">
-        <v>140.0025</v>
+        <v>137.3325</v>
       </c>
       <c r="F66" s="3">
-        <v>140.0025</v>
+        <v>137.3325</v>
       </c>
       <c r="G66" s="3">
-        <v>2.1666666666666665</v>
+        <v>1.75</v>
       </c>
       <c r="H66" s="9">
         <v>2</v>
       </c>
       <c r="I66" s="9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J66" s="3">
-        <v>64.616538462</v>
+        <v>78.475714286</v>
       </c>
       <c r="K66" s="9">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>7448</v>
+        <v>6417</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C67" s="3">
-        <v>648.26</v>
+        <v>853.53</v>
       </c>
       <c r="D67" s="3">
-        <v>648.26</v>
+        <v>853.53</v>
       </c>
       <c r="E67" s="3">
-        <v>92.608571429</v>
+        <v>142.255</v>
       </c>
       <c r="F67" s="3">
-        <v>92.60857142857142</v>
+        <v>142.255</v>
       </c>
       <c r="G67" s="3">
-        <v>2.857142857142857</v>
+        <v>2.5</v>
       </c>
       <c r="H67" s="9">
         <v>2</v>
       </c>
       <c r="I67" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J67" s="3">
-        <v>32.413</v>
+        <v>56.902</v>
       </c>
       <c r="K67" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>14586</v>
+        <v>4146</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C68" s="3">
-        <v>1571.68</v>
+        <v>2410.93</v>
       </c>
       <c r="D68" s="3">
-        <v>1571.68</v>
+        <v>2410.93</v>
       </c>
       <c r="E68" s="3">
-        <v>130.973333333</v>
+        <v>172.209285714</v>
       </c>
       <c r="F68" s="3">
-        <v>130.97333333333333</v>
+        <v>172.2092857142857</v>
       </c>
       <c r="G68" s="3">
-        <v>3.0833333333333335</v>
+        <v>2.9285714285714284</v>
       </c>
       <c r="H68" s="9">
         <v>2</v>
       </c>
       <c r="I68" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J68" s="3">
-        <v>42.477837838</v>
+        <v>58.803170732</v>
       </c>
       <c r="K68" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -5237,378 +5237,378 @@
         <v>98</v>
       </c>
       <c r="C69" s="3">
-        <v>2578.39</v>
+        <v>882.39</v>
       </c>
       <c r="D69" s="3">
-        <v>2578.39</v>
+        <v>882.39</v>
       </c>
       <c r="E69" s="3">
-        <v>198.337692308</v>
+        <v>126.055714286</v>
       </c>
       <c r="F69" s="3">
-        <v>198.3376923076923</v>
+        <v>126.05571428571429</v>
       </c>
       <c r="G69" s="3">
-        <v>3</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="H69" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" s="9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J69" s="3">
-        <v>66.112564103</v>
+        <v>49.021666667</v>
       </c>
       <c r="K69" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>19832</v>
+        <v>9009</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C70" s="3">
-        <v>738.74</v>
+        <v>2006.47</v>
       </c>
       <c r="D70" s="3">
-        <v>738.74</v>
+        <v>2006.47</v>
       </c>
       <c r="E70" s="3">
-        <v>147.748</v>
+        <v>250.80875</v>
       </c>
       <c r="F70" s="3">
-        <v>147.748</v>
+        <v>250.80875</v>
       </c>
       <c r="G70" s="3">
-        <v>2.6</v>
+        <v>3.125</v>
       </c>
       <c r="H70" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J70" s="3">
-        <v>56.826153846</v>
+        <v>80.2588</v>
       </c>
       <c r="K70" s="9">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>6417</v>
+        <v>19832</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C71" s="3">
-        <v>602.58</v>
+        <v>859.23</v>
       </c>
       <c r="D71" s="3">
-        <v>602.58</v>
+        <v>859.23</v>
       </c>
       <c r="E71" s="3">
-        <v>200.86</v>
+        <v>171.846</v>
       </c>
       <c r="F71" s="3">
-        <v>200.86</v>
+        <v>171.846</v>
       </c>
       <c r="G71" s="3">
-        <v>3.3333333333333335</v>
+        <v>2.4</v>
       </c>
       <c r="H71" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J71" s="3">
-        <v>60.258</v>
+        <v>71.6025</v>
       </c>
       <c r="K71" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>14590</v>
+        <v>4145</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C72" s="3">
-        <v>712.45</v>
+        <v>1399.99</v>
       </c>
       <c r="D72" s="3">
-        <v>712.45</v>
+        <v>1399.99</v>
       </c>
       <c r="E72" s="3">
-        <v>142.49</v>
+        <v>199.998571429</v>
       </c>
       <c r="F72" s="3">
-        <v>142.49</v>
+        <v>199.99857142857144</v>
       </c>
       <c r="G72" s="3">
-        <v>2.2</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="H72" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J72" s="3">
-        <v>64.768181818</v>
+        <v>63.635909091</v>
       </c>
       <c r="K72" s="9">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>7164</v>
+        <v>4146</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C73" s="3">
-        <v>1252.14</v>
+        <v>79.8</v>
       </c>
       <c r="D73" s="3">
-        <v>1252.14</v>
+        <v>79.8</v>
       </c>
       <c r="E73" s="3">
-        <v>156.5175</v>
+        <v>79.8</v>
       </c>
       <c r="F73" s="3">
-        <v>156.5175</v>
+        <v>79.8</v>
       </c>
       <c r="G73" s="3">
         <v>2</v>
       </c>
       <c r="H73" s="9">
+        <v>0</v>
+      </c>
+      <c r="I73" s="9">
         <v>1</v>
       </c>
-      <c r="I73" s="9">
-        <v>8</v>
-      </c>
       <c r="J73" s="3">
-        <v>78.25875</v>
+        <v>39.9</v>
       </c>
       <c r="K73" s="9">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>4145</v>
+        <v>6777</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C74" s="3">
-        <v>1399.99</v>
+        <v>1843.56</v>
       </c>
       <c r="D74" s="3">
-        <v>1399.99</v>
+        <v>1843.56</v>
       </c>
       <c r="E74" s="3">
-        <v>199.998571429</v>
+        <v>230.445</v>
       </c>
       <c r="F74" s="3">
-        <v>199.99857142857144</v>
+        <v>230.445</v>
       </c>
       <c r="G74" s="3">
-        <v>3.142857142857143</v>
+        <v>3.375</v>
       </c>
       <c r="H74" s="9">
         <v>1</v>
       </c>
       <c r="I74" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J74" s="3">
-        <v>63.635909091</v>
+        <v>68.28</v>
       </c>
       <c r="K74" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>20138</v>
+        <v>7448</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C75" s="3">
-        <v>677.97</v>
+        <v>1335.95</v>
       </c>
       <c r="D75" s="3">
-        <v>677.97</v>
+        <v>1335.95</v>
       </c>
       <c r="E75" s="3">
-        <v>135.594</v>
+        <v>190.85</v>
       </c>
       <c r="F75" s="3">
-        <v>135.594</v>
+        <v>190.85</v>
       </c>
       <c r="G75" s="3">
-        <v>1.6</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="H75" s="9">
         <v>1</v>
       </c>
       <c r="I75" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J75" s="3">
-        <v>84.74625</v>
+        <v>60.725</v>
       </c>
       <c r="K75" s="9">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>6417</v>
+        <v>14502</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="C76" s="3">
-        <v>1842.51</v>
+        <v>141.26</v>
       </c>
       <c r="D76" s="3">
-        <v>1842.51</v>
+        <v>141.26</v>
       </c>
       <c r="E76" s="3">
-        <v>153.5425</v>
+        <v>141.26</v>
       </c>
       <c r="F76" s="3">
-        <v>153.5425</v>
+        <v>141.26</v>
       </c>
       <c r="G76" s="3">
-        <v>2.6666666666666665</v>
+        <v>7</v>
       </c>
       <c r="H76" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I76" s="9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J76" s="3">
-        <v>57.5784375</v>
+        <v>20.18</v>
       </c>
       <c r="K76" s="9">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>4145</v>
+        <v>18464</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C77" s="3">
-        <v>1108.11</v>
+        <v>2786.54</v>
       </c>
       <c r="D77" s="3">
-        <v>1108.11</v>
+        <v>2786.54</v>
       </c>
       <c r="E77" s="3">
-        <v>138.51375</v>
+        <v>163.914117647</v>
       </c>
       <c r="F77" s="3">
-        <v>138.51375</v>
+        <v>163.91411764705882</v>
       </c>
       <c r="G77" s="3">
-        <v>3.875</v>
+        <v>3.2941176470588234</v>
       </c>
       <c r="H77" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I77" s="9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J77" s="3">
-        <v>35.745483871</v>
+        <v>49.759642857</v>
       </c>
       <c r="K77" s="9">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>4591</v>
+        <v>19832</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C78" s="3">
-        <v>904.67</v>
+        <v>1230.25</v>
       </c>
       <c r="D78" s="3">
-        <v>904.67</v>
+        <v>1230.25</v>
       </c>
       <c r="E78" s="3">
-        <v>90.467</v>
+        <v>175.75</v>
       </c>
       <c r="F78" s="3">
-        <v>90.467</v>
+        <v>175.75</v>
       </c>
       <c r="G78" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H78" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I78" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J78" s="3">
-        <v>45.2335</v>
+        <v>58.583333333</v>
       </c>
       <c r="K78" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>7448</v>
+        <v>4145</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C79" s="3">
-        <v>1091.98</v>
+        <v>1866.07</v>
       </c>
       <c r="D79" s="3">
-        <v>1091.98</v>
+        <v>1866.07</v>
       </c>
       <c r="E79" s="3">
-        <v>155.997142857</v>
+        <v>311.011666667</v>
       </c>
       <c r="F79" s="3">
-        <v>155.99714285714285</v>
+        <v>311.01166666666666</v>
       </c>
       <c r="G79" s="3">
-        <v>3.7142857142857144</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H79" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J79" s="3">
-        <v>41.999230769</v>
+        <v>71.771923077</v>
       </c>
       <c r="K79" s="9">
         <v>26</v>
@@ -5616,314 +5616,314 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>19832</v>
+        <v>7164</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C80" s="3">
-        <v>151.2</v>
+        <v>1252.14</v>
       </c>
       <c r="D80" s="3">
-        <v>151.2</v>
+        <v>1252.14</v>
       </c>
       <c r="E80" s="3">
-        <v>151.2</v>
+        <v>156.5175</v>
       </c>
       <c r="F80" s="3">
-        <v>151.2</v>
+        <v>156.5175</v>
       </c>
       <c r="G80" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H80" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J80" s="3">
-        <v>37.8</v>
+        <v>78.25875</v>
       </c>
       <c r="K80" s="9">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>6005</v>
+        <v>6417</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C81" s="3">
-        <v>549.33</v>
+        <v>602.58</v>
       </c>
       <c r="D81" s="3">
-        <v>549.33</v>
+        <v>602.58</v>
       </c>
       <c r="E81" s="3">
-        <v>137.3325</v>
+        <v>200.86</v>
       </c>
       <c r="F81" s="3">
-        <v>137.3325</v>
+        <v>200.86</v>
       </c>
       <c r="G81" s="3">
-        <v>1.75</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="H81" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J81" s="3">
-        <v>78.475714286</v>
+        <v>60.258</v>
       </c>
       <c r="K81" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>14502</v>
+        <v>20138</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C82" s="3">
-        <v>2576.49</v>
+        <v>1772.02</v>
       </c>
       <c r="D82" s="3">
-        <v>2576.49</v>
+        <v>1772.02</v>
       </c>
       <c r="E82" s="3">
-        <v>234.226363636</v>
+        <v>177.202</v>
       </c>
       <c r="F82" s="3">
-        <v>234.22636363636363</v>
+        <v>177.202</v>
       </c>
       <c r="G82" s="3">
-        <v>3.272727272727273</v>
+        <v>2.7</v>
       </c>
       <c r="H82" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J82" s="3">
-        <v>71.569166667</v>
+        <v>65.63037037</v>
       </c>
       <c r="K82" s="9">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>4591</v>
+        <v>20138</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C83" s="3">
-        <v>732.38</v>
+        <v>677.97</v>
       </c>
       <c r="D83" s="3">
-        <v>732.38</v>
+        <v>677.97</v>
       </c>
       <c r="E83" s="3">
-        <v>146.476</v>
+        <v>135.594</v>
       </c>
       <c r="F83" s="3">
-        <v>146.476</v>
+        <v>135.594</v>
       </c>
       <c r="G83" s="3">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H83" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="9">
         <v>5</v>
       </c>
       <c r="J83" s="3">
-        <v>36.619</v>
+        <v>84.74625</v>
       </c>
       <c r="K83" s="9">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>22595</v>
+        <v>4590</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C84" s="3">
-        <v>318.28</v>
+        <v>1487.07</v>
       </c>
       <c r="D84" s="3">
-        <v>318.28</v>
+        <v>1487.07</v>
       </c>
       <c r="E84" s="3">
-        <v>318.28</v>
+        <v>185.88375</v>
       </c>
       <c r="F84" s="3">
-        <v>318.28</v>
+        <v>185.88375</v>
       </c>
       <c r="G84" s="3">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="H84" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J84" s="3">
-        <v>63.656</v>
+        <v>67.594090909</v>
       </c>
       <c r="K84" s="9">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>14586</v>
+        <v>9009</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C85" s="3">
-        <v>1012.67</v>
+        <v>2383.53</v>
       </c>
       <c r="D85" s="3">
-        <v>1012.67</v>
+        <v>2383.53</v>
       </c>
       <c r="E85" s="3">
-        <v>101.267</v>
+        <v>140.207647059</v>
       </c>
       <c r="F85" s="3">
-        <v>101.267</v>
+        <v>140.20764705882354</v>
       </c>
       <c r="G85" s="3">
-        <v>2.4</v>
+        <v>2.2941176470588234</v>
       </c>
       <c r="H85" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I85" s="9">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J85" s="3">
-        <v>42.194583333</v>
+        <v>61.116153846</v>
       </c>
       <c r="K85" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>20138</v>
+        <v>12550</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C86" s="3">
-        <v>1659.9</v>
+        <v>1842.44</v>
       </c>
       <c r="D86" s="3">
-        <v>1659.9</v>
+        <v>1842.44</v>
       </c>
       <c r="E86" s="3">
-        <v>150.9</v>
+        <v>204.715555556</v>
       </c>
       <c r="F86" s="3">
-        <v>150.9</v>
+        <v>204.71555555555557</v>
       </c>
       <c r="G86" s="3">
-        <v>3.3636363636363638</v>
+        <v>6.222222222222222</v>
       </c>
       <c r="H86" s="9">
         <v>0</v>
       </c>
       <c r="I86" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J86" s="3">
-        <v>44.862162162</v>
+        <v>32.900714286</v>
       </c>
       <c r="K86" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>4590</v>
+        <v>14590</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C87" s="3">
-        <v>882.39</v>
+        <v>1025.18</v>
       </c>
       <c r="D87" s="3">
-        <v>882.39</v>
+        <v>1025.18</v>
       </c>
       <c r="E87" s="3">
-        <v>126.055714286</v>
+        <v>170.863333333</v>
       </c>
       <c r="F87" s="3">
-        <v>126.05571428571429</v>
+        <v>170.86333333333334</v>
       </c>
       <c r="G87" s="3">
-        <v>2.5714285714285716</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="H87" s="9">
         <v>1</v>
       </c>
       <c r="I87" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J87" s="3">
-        <v>49.021666667</v>
+        <v>41.0072</v>
       </c>
       <c r="K87" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>6777</v>
+        <v>14586</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C88" s="3">
-        <v>1212.73</v>
+        <v>997.67</v>
       </c>
       <c r="D88" s="3">
-        <v>1212.73</v>
+        <v>997.67</v>
       </c>
       <c r="E88" s="3">
-        <v>151.59125</v>
+        <v>249.4175</v>
       </c>
       <c r="F88" s="3">
-        <v>151.59125</v>
+        <v>249.4175</v>
       </c>
       <c r="G88" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H88" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J88" s="3">
-        <v>75.795625</v>
+        <v>62.354375</v>
       </c>
       <c r="K88" s="9">
         <v>16</v>
@@ -5931,270 +5931,270 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>9009</v>
+        <v>12808</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C89" s="3">
-        <v>1927.96</v>
+        <v>1832.16</v>
       </c>
       <c r="D89" s="3">
-        <v>1927.96</v>
+        <v>1832.16</v>
       </c>
       <c r="E89" s="3">
-        <v>120.4975</v>
+        <v>229.02</v>
       </c>
       <c r="F89" s="3">
-        <v>120.4975</v>
+        <v>229.02</v>
       </c>
       <c r="G89" s="3">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="H89" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I89" s="9">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J89" s="3">
-        <v>53.554444444</v>
+        <v>76.34</v>
       </c>
       <c r="K89" s="9">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>6005</v>
+        <v>19832</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C90" s="3">
-        <v>94.97</v>
+        <v>547.94</v>
       </c>
       <c r="D90" s="3">
-        <v>94.97</v>
+        <v>547.94</v>
       </c>
       <c r="E90" s="3">
-        <v>94.97</v>
+        <v>182.646666667</v>
       </c>
       <c r="F90" s="3">
-        <v>94.97</v>
+        <v>182.64666666666668</v>
       </c>
       <c r="G90" s="3">
+        <v>2</v>
+      </c>
+      <c r="H90" s="9">
+        <v>1</v>
+      </c>
+      <c r="I90" s="9">
         <v>3</v>
       </c>
-      <c r="H90" s="9">
-        <v>0</v>
-      </c>
-      <c r="I90" s="9">
-        <v>1</v>
-      </c>
       <c r="J90" s="3">
-        <v>31.656666667</v>
+        <v>91.323333333</v>
       </c>
       <c r="K90" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>9009</v>
+        <v>4146</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C91" s="3">
-        <v>606.25</v>
+        <v>988.09</v>
       </c>
       <c r="D91" s="3">
-        <v>606.25</v>
+        <v>988.09</v>
       </c>
       <c r="E91" s="3">
-        <v>121.25</v>
+        <v>109.787777778</v>
       </c>
       <c r="F91" s="3">
-        <v>121.25</v>
+        <v>109.78777777777778</v>
       </c>
       <c r="G91" s="3">
-        <v>2.6</v>
+        <v>3.111111111111111</v>
       </c>
       <c r="H91" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J91" s="3">
-        <v>46.634615385</v>
+        <v>35.288928571</v>
       </c>
       <c r="K91" s="9">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>4145</v>
+        <v>4590</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C92" s="3">
-        <v>1373.38</v>
+        <v>2578.39</v>
       </c>
       <c r="D92" s="3">
-        <v>1373.38</v>
+        <v>2578.39</v>
       </c>
       <c r="E92" s="3">
-        <v>228.896666667</v>
+        <v>198.337692308</v>
       </c>
       <c r="F92" s="3">
-        <v>228.89666666666668</v>
+        <v>198.3376923076923</v>
       </c>
       <c r="G92" s="3">
-        <v>1.8333333333333333</v>
+        <v>3</v>
       </c>
       <c r="H92" s="9">
         <v>2</v>
       </c>
       <c r="I92" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J92" s="3">
-        <v>124.852727273</v>
+        <v>66.112564103</v>
       </c>
       <c r="K92" s="9">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>14502</v>
+        <v>9009</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C93" s="3">
-        <v>141.26</v>
+        <v>606.25</v>
       </c>
       <c r="D93" s="3">
-        <v>141.26</v>
+        <v>606.25</v>
       </c>
       <c r="E93" s="3">
-        <v>141.26</v>
+        <v>121.25</v>
       </c>
       <c r="F93" s="3">
-        <v>141.26</v>
+        <v>121.25</v>
       </c>
       <c r="G93" s="3">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="H93" s="9">
         <v>0</v>
       </c>
       <c r="I93" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J93" s="3">
-        <v>20.18</v>
+        <v>46.634615385</v>
       </c>
       <c r="K93" s="9">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>14502</v>
+        <v>18464</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C94" s="3">
-        <v>533.98</v>
+        <v>89.76</v>
       </c>
       <c r="D94" s="3">
-        <v>533.98</v>
+        <v>89.76</v>
       </c>
       <c r="E94" s="3">
-        <v>133.495</v>
+        <v>89.76</v>
       </c>
       <c r="F94" s="3">
-        <v>133.495</v>
+        <v>89.76</v>
       </c>
       <c r="G94" s="3">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="H94" s="9">
+        <v>0</v>
+      </c>
+      <c r="I94" s="9">
         <v>1</v>
       </c>
-      <c r="I94" s="9">
+      <c r="J94" s="3">
+        <v>22.44</v>
+      </c>
+      <c r="K94" s="9">
         <v>4</v>
-      </c>
-      <c r="J94" s="3">
-        <v>59.331111111</v>
-      </c>
-      <c r="K94" s="9">
-        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>18464</v>
+        <v>14502</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C95" s="3">
-        <v>1783.25</v>
+        <v>2576.49</v>
       </c>
       <c r="D95" s="3">
-        <v>1783.25</v>
+        <v>2576.49</v>
       </c>
       <c r="E95" s="3">
-        <v>137.173076923</v>
+        <v>234.226363636</v>
       </c>
       <c r="F95" s="3">
-        <v>137.17307692307693</v>
+        <v>234.22636363636363</v>
       </c>
       <c r="G95" s="3">
-        <v>2.4615384615384617</v>
+        <v>3.272727272727273</v>
       </c>
       <c r="H95" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J95" s="3">
-        <v>55.7265625</v>
+        <v>71.569166667</v>
       </c>
       <c r="K95" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>4590</v>
+        <v>6777</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C96" s="3">
-        <v>1366.79</v>
+        <v>1212.73</v>
       </c>
       <c r="D96" s="3">
-        <v>1366.79</v>
+        <v>1212.73</v>
       </c>
       <c r="E96" s="3">
-        <v>170.84875</v>
+        <v>151.59125</v>
       </c>
       <c r="F96" s="3">
-        <v>170.84875</v>
+        <v>151.59125</v>
       </c>
       <c r="G96" s="3">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="H96" s="9">
         <v>3</v>
@@ -6203,42 +6203,42 @@
         <v>8</v>
       </c>
       <c r="J96" s="3">
-        <v>59.425652174</v>
+        <v>75.795625</v>
       </c>
       <c r="K96" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>4591</v>
+        <v>6777</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C97" s="3">
-        <v>1335.05</v>
+        <v>1409.03</v>
       </c>
       <c r="D97" s="3">
-        <v>1335.05</v>
+        <v>1409.03</v>
       </c>
       <c r="E97" s="3">
-        <v>222.508333333</v>
+        <v>176.12875</v>
       </c>
       <c r="F97" s="3">
-        <v>222.50833333333333</v>
+        <v>176.12875</v>
       </c>
       <c r="G97" s="3">
-        <v>3.3333333333333335</v>
+        <v>2.5</v>
       </c>
       <c r="H97" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J97" s="3">
-        <v>66.7525</v>
+        <v>70.4515</v>
       </c>
       <c r="K97" s="9">
         <v>20</v>
@@ -6246,72 +6246,72 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>6005</v>
+        <v>18464</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C98" s="3">
-        <v>725.2</v>
+        <v>1783.25</v>
       </c>
       <c r="D98" s="3">
-        <v>725.2</v>
+        <v>1783.25</v>
       </c>
       <c r="E98" s="3">
-        <v>145.04</v>
+        <v>137.173076923</v>
       </c>
       <c r="F98" s="3">
-        <v>145.04000000000002</v>
+        <v>137.17307692307693</v>
       </c>
       <c r="G98" s="3">
-        <v>1.4</v>
+        <v>2.4615384615384617</v>
       </c>
       <c r="H98" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" s="9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J98" s="3">
-        <v>103.6</v>
+        <v>55.7265625</v>
       </c>
       <c r="K98" s="9">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>19832</v>
+        <v>20138</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C99" s="3">
-        <v>1230.25</v>
+        <v>2491.96</v>
       </c>
       <c r="D99" s="3">
-        <v>1230.25</v>
+        <v>2491.96</v>
       </c>
       <c r="E99" s="3">
-        <v>175.75</v>
+        <v>191.689230769</v>
       </c>
       <c r="F99" s="3">
-        <v>175.75</v>
+        <v>191.68923076923076</v>
       </c>
       <c r="G99" s="3">
-        <v>3</v>
+        <v>3.3846153846153846</v>
       </c>
       <c r="H99" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I99" s="9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J99" s="3">
-        <v>58.583333333</v>
+        <v>56.635454545</v>
       </c>
       <c r="K99" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -6322,31 +6322,31 @@
         <v>127</v>
       </c>
       <c r="C100" s="3">
-        <v>52.72</v>
+        <v>2200.08</v>
       </c>
       <c r="D100" s="3">
-        <v>52.72</v>
+        <v>2200.08</v>
       </c>
       <c r="E100" s="3">
-        <v>52.72</v>
+        <v>200.007272727</v>
       </c>
       <c r="F100" s="3">
-        <v>52.72</v>
+        <v>200.00727272727272</v>
       </c>
       <c r="G100" s="3">
-        <v>1</v>
+        <v>2.8181818181818183</v>
       </c>
       <c r="H100" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I100" s="9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J100" s="3">
-        <v>52.72</v>
+        <v>70.970322581</v>
       </c>
       <c r="K100" s="9">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6638,13 +6638,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3025BF85-F72C-4250-B918-BCB1E5D0A4B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F7DF509-0A08-4C32-B435-52037BCC72B3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB3D7595-1296-42EB-831D-EF446EE048BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{814F14DB-4FDF-4FF4-BA99-BC856995BE42}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F546C9-CD93-4515-9F51-87C994F96DEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2EBAD87-4CAF-456C-A724-D3C98FEEF349}"/>
 </file>